--- a/extras/CohortDescription.xlsx
+++ b/extras/CohortDescription.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\github\ohdsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\github\ohdsi\PhenotypeLibrary\extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6057,7 +6057,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C799" sqref="C799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11885,7 +11885,7 @@
     </row>
     <row r="206" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>201254000</v>
+        <v>201820000</v>
       </c>
       <c r="B206">
         <v>17693</v>
@@ -11914,7 +11914,7 @@
     </row>
     <row r="207" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>201254000</v>
+        <v>201820000</v>
       </c>
       <c r="B207">
         <v>17692</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="208" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>201254000</v>
+        <v>201820000</v>
       </c>
       <c r="B208">
         <v>18999</v>
@@ -12378,7 +12378,7 @@
     </row>
     <row r="223" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>201826000</v>
+        <v>201820000</v>
       </c>
       <c r="B223">
         <v>17695</v>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="224" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>201826000</v>
+        <v>201820000</v>
       </c>
       <c r="B224">
         <v>17694</v>
@@ -12436,7 +12436,7 @@
     </row>
     <row r="225" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>201826000</v>
+        <v>201820000</v>
       </c>
       <c r="B225">
         <v>17720</v>
@@ -12459,7 +12459,7 @@
     </row>
     <row r="226" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>201826000</v>
+        <v>201820000</v>
       </c>
       <c r="B226">
         <v>18933</v>
@@ -12485,7 +12485,7 @@
     </row>
     <row r="227" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>201826000</v>
+        <v>201820000</v>
       </c>
       <c r="B227">
         <v>18934</v>
@@ -12511,7 +12511,7 @@
     </row>
     <row r="228" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>201826000</v>
+        <v>201820000</v>
       </c>
       <c r="B228">
         <v>18972</v>
@@ -12540,7 +12540,7 @@
     </row>
     <row r="229" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>201826000</v>
+        <v>201820000</v>
       </c>
       <c r="B229">
         <v>18964</v>
@@ -12569,7 +12569,7 @@
     </row>
     <row r="230" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>201826000</v>
+        <v>201820000</v>
       </c>
       <c r="B230">
         <v>19031</v>
@@ -22295,7 +22295,7 @@
     </row>
     <row r="578" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>443727000</v>
+        <v>201820000</v>
       </c>
       <c r="B578">
         <v>17467</v>
@@ -22324,7 +22324,7 @@
     </row>
     <row r="579" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>443727000</v>
+        <v>201820000</v>
       </c>
       <c r="B579">
         <v>17466</v>
@@ -22927,7 +22927,7 @@
     </row>
     <row r="600" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>4024659000</v>
+        <v>201820000</v>
       </c>
       <c r="B600">
         <v>17798</v>
@@ -22956,7 +22956,7 @@
     </row>
     <row r="601" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>4024659000</v>
+        <v>201820000</v>
       </c>
       <c r="B601">
         <v>17797</v>
@@ -22985,7 +22985,7 @@
     </row>
     <row r="602" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>4024659000</v>
+        <v>201820000</v>
       </c>
       <c r="B602">
         <v>17762</v>

--- a/extras/CohortDescription.xlsx
+++ b/extras/CohortDescription.xlsx
@@ -6057,7 +6057,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C799" sqref="C799"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>24134000</v>
+        <v>4094294000</v>
       </c>
       <c r="B2">
         <v>17595</v>
@@ -6136,7 +6136,7 @@
     </row>
     <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>24134000</v>
+        <v>4094294000</v>
       </c>
       <c r="B3">
         <v>17594</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>24134000</v>
+        <v>4094294000</v>
       </c>
       <c r="B4">
         <v>18994</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>31317000</v>
+        <v>4094294000</v>
       </c>
       <c r="B13">
         <v>17471</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>31317000</v>
+        <v>4094294000</v>
       </c>
       <c r="B14">
         <v>17470</v>
@@ -6481,7 +6481,7 @@
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>31317000</v>
+        <v>4094294000</v>
       </c>
       <c r="B15">
         <v>17871</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>31967000</v>
+        <v>4094294000</v>
       </c>
       <c r="B16">
         <v>17593</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="17" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>31967000</v>
+        <v>4094294000</v>
       </c>
       <c r="B17">
         <v>17592</v>
@@ -6568,7 +6568,7 @@
     </row>
     <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>31967000</v>
+        <v>4094294000</v>
       </c>
       <c r="B18">
         <v>18996</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="19" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>75860000</v>
+        <v>4094294000</v>
       </c>
       <c r="B19">
         <v>17451</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="20" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>75860000</v>
+        <v>4094294000</v>
       </c>
       <c r="B20">
         <v>17450</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>75860000</v>
+        <v>4094294000</v>
       </c>
       <c r="B21">
         <v>18997</v>
@@ -6736,7 +6736,7 @@
     </row>
     <row r="24" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>77074000</v>
+        <v>4094294000</v>
       </c>
       <c r="B24">
         <v>17537</v>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="25" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>77074000</v>
+        <v>4094294000</v>
       </c>
       <c r="B25">
         <v>17536</v>
@@ -8927,7 +8927,7 @@
     </row>
     <row r="101" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>137977000</v>
+        <v>4094294000</v>
       </c>
       <c r="B101">
         <v>17535</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="102" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>137977000</v>
+        <v>4094294000</v>
       </c>
       <c r="B102">
         <v>17534</v>
@@ -10547,7 +10547,7 @@
     </row>
     <row r="158" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>194133000</v>
+        <v>4094294000</v>
       </c>
       <c r="B158">
         <v>17551</v>
@@ -10576,7 +10576,7 @@
     </row>
     <row r="159" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>194133000</v>
+        <v>4094294000</v>
       </c>
       <c r="B159">
         <v>17550</v>
@@ -10747,7 +10747,7 @@
     </row>
     <row r="165" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>196523000</v>
+        <v>4094294000</v>
       </c>
       <c r="B165">
         <v>17469</v>
@@ -10776,7 +10776,7 @@
     </row>
     <row r="166" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>196523000</v>
+        <v>4094294000</v>
       </c>
       <c r="B166">
         <v>17468</v>
@@ -10805,7 +10805,7 @@
     </row>
     <row r="167" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>196523000</v>
+        <v>4094294000</v>
       </c>
       <c r="B167">
         <v>17841</v>
@@ -10834,7 +10834,7 @@
     </row>
     <row r="168" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>196523000</v>
+        <v>4094294000</v>
       </c>
       <c r="B168">
         <v>17844</v>
@@ -10863,7 +10863,7 @@
     </row>
     <row r="169" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>196523000</v>
+        <v>4094294000</v>
       </c>
       <c r="B169">
         <v>19002</v>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="197" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>200219000</v>
+        <v>4094294000</v>
       </c>
       <c r="B197">
         <v>17375</v>
@@ -11662,7 +11662,7 @@
     </row>
     <row r="198" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>200219000</v>
+        <v>4094294000</v>
       </c>
       <c r="B198">
         <v>17374</v>
@@ -12705,7 +12705,7 @@
     </row>
     <row r="235" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>254761000</v>
+        <v>4094294000</v>
       </c>
       <c r="B235">
         <v>17453</v>
@@ -12734,7 +12734,7 @@
     </row>
     <row r="236" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>254761000</v>
+        <v>4094294000</v>
       </c>
       <c r="B236">
         <v>17452</v>
@@ -12763,7 +12763,7 @@
     </row>
     <row r="237" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>254761000</v>
+        <v>4094294000</v>
       </c>
       <c r="B237">
         <v>17722</v>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="266" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>312437000</v>
+        <v>4094294000</v>
       </c>
       <c r="B266">
         <v>17473</v>
@@ -13582,7 +13582,7 @@
     </row>
     <row r="267" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>312437000</v>
+        <v>4094294000</v>
       </c>
       <c r="B267">
         <v>17472</v>
@@ -13611,7 +13611,7 @@
     </row>
     <row r="268" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>312437000</v>
+        <v>4094294000</v>
       </c>
       <c r="B268">
         <v>17725</v>
@@ -15803,7 +15803,7 @@
     </row>
     <row r="347" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>374377000</v>
+        <v>4094294000</v>
       </c>
       <c r="B347">
         <v>18687</v>
@@ -15832,7 +15832,7 @@
     </row>
     <row r="348" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>374377000</v>
+        <v>4094294000</v>
       </c>
       <c r="B348">
         <v>18686</v>
@@ -16359,7 +16359,7 @@
     </row>
     <row r="367" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>378253000</v>
+        <v>4094294000</v>
       </c>
       <c r="B367">
         <v>17501</v>
@@ -16388,7 +16388,7 @@
     </row>
     <row r="368" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>378253000</v>
+        <v>4094294000</v>
       </c>
       <c r="B368">
         <v>17500</v>
@@ -16417,7 +16417,7 @@
     </row>
     <row r="369" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>378253000</v>
+        <v>4094294000</v>
       </c>
       <c r="B369">
         <v>19003</v>
@@ -17721,7 +17721,7 @@
     </row>
     <row r="415" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>433595000</v>
+        <v>4094294000</v>
       </c>
       <c r="B415">
         <v>17475</v>
@@ -17750,7 +17750,7 @@
     </row>
     <row r="416" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>433595000</v>
+        <v>4094294000</v>
       </c>
       <c r="B416">
         <v>17474</v>
@@ -18564,7 +18564,7 @@
     </row>
     <row r="445" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>436096000</v>
+        <v>4094294000</v>
       </c>
       <c r="B445">
         <v>17447</v>
@@ -18593,7 +18593,7 @@
     </row>
     <row r="446" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>436096000</v>
+        <v>4094294000</v>
       </c>
       <c r="B446">
         <v>17446</v>
@@ -19077,7 +19077,7 @@
     </row>
     <row r="463" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>436962000</v>
+        <v>4094294000</v>
       </c>
       <c r="B463">
         <v>17533</v>
@@ -19106,7 +19106,7 @@
     </row>
     <row r="464" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>436962000</v>
+        <v>4094294000</v>
       </c>
       <c r="B464">
         <v>17532</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="465" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>436962000</v>
+        <v>4094294000</v>
       </c>
       <c r="B465">
         <v>17869</v>
@@ -19161,7 +19161,7 @@
     </row>
     <row r="466" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>436962000</v>
+        <v>4094294000</v>
       </c>
       <c r="B466">
         <v>17870</v>
@@ -19911,7 +19911,7 @@
     </row>
     <row r="493" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>437312000</v>
+        <v>4094294000</v>
       </c>
       <c r="B493">
         <v>18740</v>
@@ -19940,7 +19940,7 @@
     </row>
     <row r="494" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>437312000</v>
+        <v>4094294000</v>
       </c>
       <c r="B494">
         <v>18739</v>
@@ -19969,7 +19969,7 @@
     </row>
     <row r="495" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>437312000</v>
+        <v>4094294000</v>
       </c>
       <c r="B495">
         <v>18770</v>
@@ -20050,7 +20050,7 @@
     </row>
     <row r="498" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>437663000</v>
+        <v>4094294000</v>
       </c>
       <c r="B498">
         <v>17483</v>
@@ -20079,7 +20079,7 @@
     </row>
     <row r="499" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>437663000</v>
+        <v>4094294000</v>
       </c>
       <c r="B499">
         <v>17482</v>
@@ -20108,7 +20108,7 @@
     </row>
     <row r="500" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>437663000</v>
+        <v>4094294000</v>
       </c>
       <c r="B500">
         <v>17721</v>
@@ -20679,7 +20679,7 @@
     </row>
     <row r="520" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>440377000</v>
+        <v>4094294000</v>
       </c>
       <c r="B520">
         <v>18685</v>
@@ -20708,7 +20708,7 @@
     </row>
     <row r="521" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>440377000</v>
+        <v>4094294000</v>
       </c>
       <c r="B521">
         <v>18684</v>
@@ -21496,7 +21496,7 @@
     </row>
     <row r="549" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>441408000</v>
+        <v>4094294000</v>
       </c>
       <c r="B549">
         <v>17713</v>
@@ -21525,7 +21525,7 @@
     </row>
     <row r="550" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>441408000</v>
+        <v>4094294000</v>
       </c>
       <c r="B550">
         <v>17712</v>
@@ -21554,7 +21554,7 @@
     </row>
     <row r="551" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>441408000</v>
+        <v>4094294000</v>
       </c>
       <c r="B551">
         <v>19005</v>
@@ -21580,7 +21580,7 @@
     </row>
     <row r="552" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>441542000</v>
+        <v>4094294000</v>
       </c>
       <c r="B552">
         <v>17407</v>
@@ -21609,7 +21609,7 @@
     </row>
     <row r="553" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>441542000</v>
+        <v>4094294000</v>
       </c>
       <c r="B553">
         <v>17406</v>
@@ -21638,7 +21638,7 @@
     </row>
     <row r="554" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>441542000</v>
+        <v>4094294000</v>
       </c>
       <c r="B554">
         <v>17826</v>
@@ -21664,7 +21664,7 @@
     </row>
     <row r="555" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>441542000</v>
+        <v>4094294000</v>
       </c>
       <c r="B555">
         <v>17842</v>
@@ -21806,7 +21806,7 @@
     </row>
     <row r="560" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>442752000</v>
+        <v>4094294000</v>
       </c>
       <c r="B560">
         <v>17808</v>
@@ -21835,7 +21835,7 @@
     </row>
     <row r="561" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>442752000</v>
+        <v>4094294000</v>
       </c>
       <c r="B561">
         <v>17807</v>
@@ -21864,7 +21864,7 @@
     </row>
     <row r="562" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>442752000</v>
+        <v>4094294000</v>
       </c>
       <c r="B562">
         <v>17723</v>
@@ -22411,7 +22411,7 @@
     </row>
     <row r="582" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>444070000</v>
+        <v>4094294000</v>
       </c>
       <c r="B582">
         <v>17683</v>
@@ -22440,7 +22440,7 @@
     </row>
     <row r="583" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>444070000</v>
+        <v>4094294000</v>
       </c>
       <c r="B583">
         <v>17682</v>
@@ -25256,7 +25256,7 @@
     </row>
     <row r="683" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>4169095000</v>
+        <v>4094294000</v>
       </c>
       <c r="B683">
         <v>17431</v>
@@ -25285,7 +25285,7 @@
     </row>
     <row r="684" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>4169095000</v>
+        <v>4094294000</v>
       </c>
       <c r="B684">
         <v>17430</v>
@@ -25314,7 +25314,7 @@
     </row>
     <row r="685" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>4169095000</v>
+        <v>4094294000</v>
       </c>
       <c r="B685">
         <v>17735</v>
@@ -25337,7 +25337,7 @@
     </row>
     <row r="686" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>4169095000</v>
+        <v>4094294000</v>
       </c>
       <c r="B686">
         <v>7404</v>
@@ -25708,7 +25708,7 @@
     </row>
     <row r="699" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>4185711000</v>
+        <v>4094294000</v>
       </c>
       <c r="B699">
         <v>17802</v>
@@ -25737,7 +25737,7 @@
     </row>
     <row r="700" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>4185711000</v>
+        <v>4094294000</v>
       </c>
       <c r="B700">
         <v>17801</v>
@@ -25908,7 +25908,7 @@
     </row>
     <row r="706" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>4223659000</v>
+        <v>4094294000</v>
       </c>
       <c r="B706">
         <v>18645</v>
@@ -25937,7 +25937,7 @@
     </row>
     <row r="707" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>4223659000</v>
+        <v>4094294000</v>
       </c>
       <c r="B707">
         <v>18644</v>
@@ -25966,7 +25966,7 @@
     </row>
     <row r="708" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>4223659000</v>
+        <v>4094294000</v>
       </c>
       <c r="B708">
         <v>17724</v>
@@ -26568,7 +26568,7 @@
     </row>
     <row r="730" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>4272240000</v>
+        <v>4094294000</v>
       </c>
       <c r="B730">
         <v>17553</v>
@@ -26597,7 +26597,7 @@
     </row>
     <row r="731" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>4272240000</v>
+        <v>4094294000</v>
       </c>
       <c r="B731">
         <v>17552</v>
@@ -28109,7 +28109,7 @@
     </row>
     <row r="785" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785">
-        <v>43530714000</v>
+        <v>4094294000</v>
       </c>
       <c r="B785">
         <v>17810</v>
@@ -28138,7 +28138,7 @@
     </row>
     <row r="786" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786">
-        <v>43530714000</v>
+        <v>4094294000</v>
       </c>
       <c r="B786">
         <v>17809</v>
@@ -28167,7 +28167,7 @@
     </row>
     <row r="787" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787">
-        <v>43530714000</v>
+        <v>4094294000</v>
       </c>
       <c r="B787">
         <v>17726</v>
@@ -28190,7 +28190,7 @@
     </row>
     <row r="788" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788">
-        <v>44784217000</v>
+        <v>4094294000</v>
       </c>
       <c r="B788">
         <v>18627</v>

--- a/extras/CohortDescription.xlsx
+++ b/extras/CohortDescription.xlsx
@@ -6057,7 +6057,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="E544" sqref="E544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8391,7 +8391,7 @@
     </row>
     <row r="82" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>133834000</v>
+        <v>43021226000</v>
       </c>
       <c r="B82">
         <v>17413</v>
@@ -8420,7 +8420,7 @@
     </row>
     <row r="83" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>133834000</v>
+        <v>43021226000</v>
       </c>
       <c r="B83">
         <v>17412</v>
@@ -8449,7 +8449,7 @@
     </row>
     <row r="84" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>133834000</v>
+        <v>43021226000</v>
       </c>
       <c r="B84">
         <v>12800</v>
@@ -8475,7 +8475,7 @@
     </row>
     <row r="85" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>133834000</v>
+        <v>43021226000</v>
       </c>
       <c r="B85">
         <v>17143</v>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>133834000</v>
+        <v>43021226000</v>
       </c>
       <c r="B86">
         <v>18858</v>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>133834000</v>
+        <v>43021226000</v>
       </c>
       <c r="B87">
         <v>18859</v>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>133834000</v>
+        <v>43021226000</v>
       </c>
       <c r="B88">
         <v>18860</v>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="89" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>133834000</v>
+        <v>43021226000</v>
       </c>
       <c r="B89">
         <v>18861</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>133834000</v>
+        <v>43021226000</v>
       </c>
       <c r="B90">
         <v>18862</v>
@@ -8646,7 +8646,7 @@
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>133834000</v>
+        <v>43021226000</v>
       </c>
       <c r="B91">
         <v>18863</v>
@@ -8675,7 +8675,7 @@
     </row>
     <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>133834000</v>
+        <v>43021226000</v>
       </c>
       <c r="B92">
         <v>18864</v>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="93" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>133834000</v>
+        <v>43021226000</v>
       </c>
       <c r="B93">
         <v>18865</v>
@@ -12994,7 +12994,7 @@
     </row>
     <row r="246" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>257007000</v>
+        <v>43021226000</v>
       </c>
       <c r="B246">
         <v>17391</v>
@@ -13023,7 +13023,7 @@
     </row>
     <row r="247" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>257007000</v>
+        <v>43021226000</v>
       </c>
       <c r="B247">
         <v>17390</v>
@@ -17356,7 +17356,7 @@
     </row>
     <row r="402" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>432791000</v>
+        <v>43021226000</v>
       </c>
       <c r="B402">
         <v>17786</v>
@@ -17385,7 +17385,7 @@
     </row>
     <row r="403" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>432791000</v>
+        <v>43021226000</v>
       </c>
       <c r="B403">
         <v>17785</v>
@@ -17414,7 +17414,7 @@
     </row>
     <row r="404" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>432791000</v>
+        <v>43021226000</v>
       </c>
       <c r="B404">
         <v>7377</v>
@@ -21325,7 +21325,7 @@
     </row>
     <row r="543" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>441202000</v>
+        <v>43021226000</v>
       </c>
       <c r="B543">
         <v>18620</v>
@@ -21354,7 +21354,7 @@
     </row>
     <row r="544" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>441202000</v>
+        <v>43021226000</v>
       </c>
       <c r="B544">
         <v>18619</v>
@@ -21383,7 +21383,7 @@
     </row>
     <row r="545" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>441202000</v>
+        <v>43021226000</v>
       </c>
       <c r="B545">
         <v>18487</v>
@@ -21409,7 +21409,7 @@
     </row>
     <row r="546" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>441202000</v>
+        <v>43021226000</v>
       </c>
       <c r="B546">
         <v>18602</v>

--- a/extras/CohortDescription.xlsx
+++ b/extras/CohortDescription.xlsx
@@ -6057,7 +6057,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E544" sqref="E544"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13443,7 +13443,7 @@
     </row>
     <row r="262" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>312327000</v>
+        <v>4185932000</v>
       </c>
       <c r="B262">
         <v>17379</v>
@@ -13472,7 +13472,7 @@
     </row>
     <row r="263" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>312327000</v>
+        <v>4185932000</v>
       </c>
       <c r="B263">
         <v>17378</v>
@@ -13501,7 +13501,7 @@
     </row>
     <row r="264" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>312327000</v>
+        <v>4185932000</v>
       </c>
       <c r="B264">
         <v>17753</v>
@@ -13527,7 +13527,7 @@
     </row>
     <row r="265" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>312327000</v>
+        <v>4185932000</v>
       </c>
       <c r="B265">
         <v>18935</v>
@@ -15223,7 +15223,7 @@
       </c>
     </row>
     <row r="326" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="2">
+      <c r="A326">
         <v>4185932000</v>
       </c>
       <c r="B326">
@@ -15252,7 +15252,7 @@
       </c>
     </row>
     <row r="327" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="2">
+      <c r="A327">
         <v>4185932000</v>
       </c>
       <c r="B327">
@@ -15281,7 +15281,7 @@
       </c>
     </row>
     <row r="328" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="2">
+      <c r="A328">
         <v>4185932000</v>
       </c>
       <c r="B328">
@@ -15307,7 +15307,7 @@
       </c>
     </row>
     <row r="329" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="2">
+      <c r="A329">
         <v>4185932000</v>
       </c>
       <c r="B329">

--- a/extras/CohortDescription.xlsx
+++ b/extras/CohortDescription.xlsx
@@ -6057,7 +6057,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D302" sqref="D302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14487,8 +14487,8 @@
       </c>
     </row>
     <row r="300" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>317009000</v>
+      <c r="A300" s="2">
+        <v>43021226000</v>
       </c>
       <c r="B300">
         <v>17411</v>
@@ -14516,8 +14516,8 @@
       </c>
     </row>
     <row r="301" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>317009000</v>
+      <c r="A301" s="2">
+        <v>43021226000</v>
       </c>
       <c r="B301">
         <v>17410</v>
@@ -14545,8 +14545,8 @@
       </c>
     </row>
     <row r="302" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>317009000</v>
+      <c r="A302" s="2">
+        <v>43021226000</v>
       </c>
       <c r="B302">
         <v>17741</v>
@@ -14571,8 +14571,8 @@
       </c>
     </row>
     <row r="303" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>317009000</v>
+      <c r="A303" s="2">
+        <v>43021226000</v>
       </c>
       <c r="B303">
         <v>17767</v>
@@ -14597,8 +14597,8 @@
       </c>
     </row>
     <row r="304" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304">
-        <v>317009000</v>
+      <c r="A304" s="2">
+        <v>43021226000</v>
       </c>
       <c r="B304">
         <v>17768</v>
@@ -14623,8 +14623,8 @@
       </c>
     </row>
     <row r="305" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305">
-        <v>317009000</v>
+      <c r="A305" s="2">
+        <v>43021226000</v>
       </c>
       <c r="B305">
         <v>18775</v>

--- a/extras/CohortDescription.xlsx
+++ b/extras/CohortDescription.xlsx
@@ -5243,7 +5243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5383,6 +5383,12 @@
       <color rgb="FF24292E"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -5726,12 +5732,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6057,7 +6064,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D302" sqref="D302"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17494,8 +17501,8 @@
       </c>
     </row>
     <row r="407" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407">
-        <v>432870000</v>
+      <c r="A407" s="3">
+        <v>443723000</v>
       </c>
       <c r="B407">
         <v>17689</v>
@@ -17523,8 +17530,8 @@
       </c>
     </row>
     <row r="408" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408">
-        <v>432870000</v>
+      <c r="A408" s="3">
+        <v>443723000</v>
       </c>
       <c r="B408">
         <v>17688</v>
@@ -17552,8 +17559,8 @@
       </c>
     </row>
     <row r="409" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A409">
-        <v>432870000</v>
+      <c r="A409" s="3">
+        <v>443723000</v>
       </c>
       <c r="B409">
         <v>18573</v>
@@ -17578,8 +17585,8 @@
       </c>
     </row>
     <row r="410" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410">
-        <v>432870000</v>
+      <c r="A410" s="3">
+        <v>443723000</v>
       </c>
       <c r="B410">
         <v>18576</v>
@@ -17604,8 +17611,8 @@
       </c>
     </row>
     <row r="411" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411">
-        <v>432881000</v>
+      <c r="A411" s="3">
+        <v>443723000</v>
       </c>
       <c r="B411">
         <v>17617</v>
@@ -17633,8 +17640,8 @@
       </c>
     </row>
     <row r="412" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412">
-        <v>432881000</v>
+      <c r="A412" s="3">
+        <v>443723000</v>
       </c>
       <c r="B412">
         <v>17616</v>
@@ -18308,8 +18315,8 @@
       </c>
     </row>
     <row r="436" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436">
-        <v>435224000</v>
+      <c r="A436" s="3">
+        <v>443723000</v>
       </c>
       <c r="B436">
         <v>17547</v>
@@ -18337,8 +18344,8 @@
       </c>
     </row>
     <row r="437" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437">
-        <v>435224000</v>
+      <c r="A437" s="3">
+        <v>443723000</v>
       </c>
       <c r="B437">
         <v>17546</v>
@@ -20621,7 +20628,7 @@
     </row>
     <row r="518" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>439777000</v>
+        <v>443723000</v>
       </c>
       <c r="B518">
         <v>17399</v>
@@ -20650,7 +20657,7 @@
     </row>
     <row r="519" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>439777000</v>
+        <v>443723000</v>
       </c>
       <c r="B519">
         <v>17398</v>

--- a/extras/CohortDescription.xlsx
+++ b/extras/CohortDescription.xlsx
@@ -6064,7 +6064,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A480" sqref="A480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15115,7 +15115,7 @@
     </row>
     <row r="322" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
-        <v>321042000</v>
+        <v>201965000</v>
       </c>
       <c r="B322">
         <v>17788</v>
@@ -15144,7 +15144,7 @@
     </row>
     <row r="323" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
-        <v>321042000</v>
+        <v>201965000</v>
       </c>
       <c r="B323">
         <v>17787</v>
@@ -15341,7 +15341,7 @@
     </row>
     <row r="330" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>321588000</v>
+        <v>0</v>
       </c>
       <c r="B330">
         <v>17503</v>
@@ -15370,7 +15370,7 @@
     </row>
     <row r="331" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>321588000</v>
+        <v>0</v>
       </c>
       <c r="B331">
         <v>17502</v>
@@ -15399,7 +15399,7 @@
     </row>
     <row r="332" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>321588000</v>
+        <v>0</v>
       </c>
       <c r="B332">
         <v>17756</v>
@@ -18710,7 +18710,7 @@
     </row>
     <row r="450" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>436235000</v>
+        <v>4094294000</v>
       </c>
       <c r="B450">
         <v>17818</v>
@@ -18739,7 +18739,7 @@
     </row>
     <row r="451" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>436235000</v>
+        <v>4094294000</v>
       </c>
       <c r="B451">
         <v>17817</v>
@@ -19194,7 +19194,7 @@
     </row>
     <row r="467" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>437082000</v>
+        <v>73553000</v>
       </c>
       <c r="B467">
         <v>17403</v>
@@ -19223,7 +19223,7 @@
     </row>
     <row r="468" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>437082000</v>
+        <v>73553000</v>
       </c>
       <c r="B468">
         <v>17402</v>
@@ -19252,7 +19252,7 @@
     </row>
     <row r="469" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>437082000</v>
+        <v>73553000</v>
       </c>
       <c r="B469">
         <v>10761</v>
@@ -19278,7 +19278,7 @@
     </row>
     <row r="470" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>437082000</v>
+        <v>73553000</v>
       </c>
       <c r="B470">
         <v>17140</v>
@@ -19304,7 +19304,7 @@
     </row>
     <row r="471" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>437082000</v>
+        <v>73553000</v>
       </c>
       <c r="B471">
         <v>18871</v>
@@ -19333,7 +19333,7 @@
     </row>
     <row r="472" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>437082000</v>
+        <v>73553000</v>
       </c>
       <c r="B472">
         <v>18872</v>
@@ -19362,7 +19362,7 @@
     </row>
     <row r="473" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>437082000</v>
+        <v>73553000</v>
       </c>
       <c r="B473">
         <v>18873</v>
@@ -19391,7 +19391,7 @@
     </row>
     <row r="474" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>437082000</v>
+        <v>73553000</v>
       </c>
       <c r="B474">
         <v>18874</v>
@@ -19420,7 +19420,7 @@
     </row>
     <row r="475" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>437082000</v>
+        <v>73553000</v>
       </c>
       <c r="B475">
         <v>18875</v>
@@ -19449,7 +19449,7 @@
     </row>
     <row r="476" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>437082000</v>
+        <v>73553000</v>
       </c>
       <c r="B476">
         <v>18876</v>
@@ -19478,7 +19478,7 @@
     </row>
     <row r="477" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>437082000</v>
+        <v>73553000</v>
       </c>
       <c r="B477">
         <v>18877</v>
@@ -19507,7 +19507,7 @@
     </row>
     <row r="478" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>437082000</v>
+        <v>73553000</v>
       </c>
       <c r="B478">
         <v>18878</v>
@@ -19536,7 +19536,7 @@
     </row>
     <row r="479" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>437082000</v>
+        <v>73553000</v>
       </c>
       <c r="B479">
         <v>18879</v>
@@ -19565,7 +19565,7 @@
     </row>
     <row r="480" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>437082000</v>
+        <v>73553000</v>
       </c>
       <c r="B480">
         <v>18870</v>
@@ -21755,7 +21755,7 @@
     </row>
     <row r="558" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>441848000</v>
+        <v>0</v>
       </c>
       <c r="B558">
         <v>18635</v>
@@ -21784,7 +21784,7 @@
     </row>
     <row r="559" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>441848000</v>
+        <v>0</v>
       </c>
       <c r="B559">
         <v>18634</v>
@@ -28342,7 +28342,7 @@
     </row>
     <row r="793" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>46271022000</v>
+        <v>4030518000</v>
       </c>
       <c r="B793">
         <v>17441</v>
@@ -28371,7 +28371,7 @@
     </row>
     <row r="794" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794">
-        <v>46271022000</v>
+        <v>4030518000</v>
       </c>
       <c r="B794">
         <v>17440</v>
@@ -28400,7 +28400,7 @@
     </row>
     <row r="795" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795">
-        <v>46271022000</v>
+        <v>4030518000</v>
       </c>
       <c r="B795">
         <v>17718</v>
@@ -28423,7 +28423,7 @@
     </row>
     <row r="796" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796">
-        <v>46271022000</v>
+        <v>4030518000</v>
       </c>
       <c r="B796">
         <v>17759</v>
@@ -28446,7 +28446,7 @@
     </row>
     <row r="797" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797">
-        <v>46271022000</v>
+        <v>4030518000</v>
       </c>
       <c r="B797">
         <v>17853</v>
@@ -28469,7 +28469,7 @@
     </row>
     <row r="798" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798">
-        <v>46271022000</v>
+        <v>4030518000</v>
       </c>
       <c r="B798">
         <v>18938</v>

--- a/extras/CohortDescription.xlsx
+++ b/extras/CohortDescription.xlsx
@@ -8474,7 +8474,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D666" sqref="D666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17598,7 +17598,7 @@
     </row>
     <row r="288" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>314383000</v>
+        <v>4189294000</v>
       </c>
       <c r="B288">
         <v>18675</v>
@@ -17630,7 +17630,7 @@
     </row>
     <row r="289" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>314383000</v>
+        <v>4189294000</v>
       </c>
       <c r="B289">
         <v>18674</v>
@@ -17662,7 +17662,7 @@
     </row>
     <row r="290" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>314383000</v>
+        <v>4189294000</v>
       </c>
       <c r="B290">
         <v>18520</v>
@@ -17691,7 +17691,7 @@
     </row>
     <row r="291" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>314383000</v>
+        <v>4189294000</v>
       </c>
       <c r="B291">
         <v>18579</v>
@@ -29390,7 +29390,7 @@
     </row>
     <row r="664" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>4138837000</v>
+        <v>4189294000</v>
       </c>
       <c r="B664">
         <v>17623</v>
@@ -29422,7 +29422,7 @@
     </row>
     <row r="665" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>4138837000</v>
+        <v>4189294000</v>
       </c>
       <c r="B665">
         <v>17622</v>
@@ -29454,7 +29454,7 @@
     </row>
     <row r="666" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>4138837000</v>
+        <v>4189294000</v>
       </c>
       <c r="B666">
         <v>18522</v>
@@ -29483,7 +29483,7 @@
     </row>
     <row r="667" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>4138837000</v>
+        <v>4189294000</v>
       </c>
       <c r="B667">
         <v>18557</v>

--- a/extras/CohortDescription.xlsx
+++ b/extras/CohortDescription.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="2539">
   <si>
     <t>phenotypeId</t>
   </si>
@@ -5221,9 +5221,6 @@
   </si>
   <si>
     <t>Chronic kidney disease incident cohort: First condition occurrence of 'chronic kidney disease' conceptset</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> during inpatient or ER</t>
   </si>
   <si>
     <t>Eosinophilic esophagitis with another occurrence in two years after - first time in persons history</t>
@@ -8470,11 +8467,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L797"/>
+  <dimension ref="A1:K797"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D666" sqref="D666"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8501,7 +8498,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -8533,7 +8530,7 @@
         <v>17595</v>
       </c>
       <c r="C2" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -8565,7 +8562,7 @@
         <v>17594</v>
       </c>
       <c r="C3" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -8597,13 +8594,13 @@
         <v>18994</v>
       </c>
       <c r="C4" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="F4">
         <v>24134003</v>
@@ -8629,7 +8626,7 @@
         <v>17523</v>
       </c>
       <c r="C5" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -8661,7 +8658,7 @@
         <v>17522</v>
       </c>
       <c r="C6" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -8693,7 +8690,7 @@
         <v>17831</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
@@ -8725,7 +8722,7 @@
         <v>17477</v>
       </c>
       <c r="C8" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
@@ -8757,7 +8754,7 @@
         <v>17476</v>
       </c>
       <c r="C9" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>28</v>
@@ -8789,7 +8786,7 @@
         <v>16908</v>
       </c>
       <c r="C10" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>
@@ -8818,7 +8815,7 @@
         <v>17481</v>
       </c>
       <c r="C11" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
@@ -8850,7 +8847,7 @@
         <v>17480</v>
       </c>
       <c r="C12" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>35</v>
@@ -8882,7 +8879,7 @@
         <v>17471</v>
       </c>
       <c r="C13" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>37</v>
@@ -8914,7 +8911,7 @@
         <v>17470</v>
       </c>
       <c r="C14" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>40</v>
@@ -8946,13 +8943,13 @@
         <v>17871</v>
       </c>
       <c r="C15" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="F15">
         <v>31317003</v>
@@ -8978,7 +8975,7 @@
         <v>17593</v>
       </c>
       <c r="C16" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>43</v>
@@ -9010,7 +9007,7 @@
         <v>17592</v>
       </c>
       <c r="C17" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>46</v>
@@ -9042,7 +9039,7 @@
         <v>18996</v>
       </c>
       <c r="C18" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>48</v>
@@ -9071,7 +9068,7 @@
         <v>17451</v>
       </c>
       <c r="C19" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -9103,7 +9100,7 @@
         <v>17450</v>
       </c>
       <c r="C20" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>52</v>
@@ -9135,7 +9132,7 @@
         <v>18997</v>
       </c>
       <c r="C21" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>54</v>
@@ -9164,7 +9161,7 @@
         <v>18671</v>
       </c>
       <c r="C22" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>55</v>
@@ -9196,7 +9193,7 @@
         <v>18670</v>
       </c>
       <c r="C23" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>58</v>
@@ -9228,7 +9225,7 @@
         <v>17537</v>
       </c>
       <c r="C24" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>60</v>
@@ -9260,7 +9257,7 @@
         <v>17536</v>
       </c>
       <c r="C25" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>63</v>
@@ -9292,7 +9289,7 @@
         <v>17611</v>
       </c>
       <c r="C26" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>65</v>
@@ -9324,7 +9321,7 @@
         <v>17610</v>
       </c>
       <c r="C27" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>68</v>
@@ -9356,7 +9353,7 @@
         <v>17465</v>
       </c>
       <c r="C28" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>70</v>
@@ -9388,7 +9385,7 @@
         <v>17464</v>
       </c>
       <c r="C29" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>73</v>
@@ -9420,7 +9417,7 @@
         <v>18647</v>
       </c>
       <c r="C30" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>75</v>
@@ -9452,7 +9449,7 @@
         <v>18646</v>
       </c>
       <c r="C31" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>78</v>
@@ -9484,7 +9481,7 @@
         <v>18771</v>
       </c>
       <c r="C32" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>80</v>
@@ -9513,7 +9510,7 @@
         <v>17613</v>
       </c>
       <c r="C33" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>82</v>
@@ -9545,7 +9542,7 @@
         <v>17612</v>
       </c>
       <c r="C34" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>85</v>
@@ -9577,7 +9574,7 @@
         <v>17665</v>
       </c>
       <c r="C35" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>87</v>
@@ -9609,7 +9606,7 @@
         <v>17664</v>
       </c>
       <c r="C36" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>90</v>
@@ -9641,7 +9638,7 @@
         <v>2538</v>
       </c>
       <c r="C37" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>92</v>
@@ -9670,7 +9667,7 @@
         <v>18790</v>
       </c>
       <c r="C38" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>94</v>
@@ -9705,7 +9702,7 @@
         <v>18791</v>
       </c>
       <c r="C39" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>97</v>
@@ -9740,7 +9737,7 @@
         <v>18792</v>
       </c>
       <c r="C40" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>99</v>
@@ -9775,7 +9772,7 @@
         <v>18793</v>
       </c>
       <c r="C41" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>101</v>
@@ -9810,7 +9807,7 @@
         <v>18794</v>
       </c>
       <c r="C42" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>103</v>
@@ -9845,7 +9842,7 @@
         <v>18795</v>
       </c>
       <c r="C43" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>105</v>
@@ -9880,7 +9877,7 @@
         <v>18796</v>
       </c>
       <c r="C44" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>107</v>
@@ -9915,7 +9912,7 @@
         <v>18797</v>
       </c>
       <c r="C45" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>109</v>
@@ -9950,7 +9947,7 @@
         <v>18798</v>
       </c>
       <c r="C46" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>111</v>
@@ -9985,7 +9982,7 @@
         <v>18799</v>
       </c>
       <c r="C47" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>113</v>
@@ -10020,7 +10017,7 @@
         <v>18800</v>
       </c>
       <c r="C48" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>115</v>
@@ -10055,7 +10052,7 @@
         <v>18801</v>
       </c>
       <c r="C49" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>117</v>
@@ -10090,7 +10087,7 @@
         <v>18802</v>
       </c>
       <c r="C50" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>119</v>
@@ -10125,7 +10122,7 @@
         <v>17699</v>
       </c>
       <c r="C51" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>121</v>
@@ -10157,7 +10154,7 @@
         <v>17698</v>
       </c>
       <c r="C52" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>124</v>
@@ -10189,7 +10186,7 @@
         <v>10605</v>
       </c>
       <c r="C53" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>126</v>
@@ -10218,7 +10215,7 @@
         <v>15982</v>
       </c>
       <c r="C54" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>128</v>
@@ -10247,7 +10244,7 @@
         <v>18803</v>
       </c>
       <c r="C55" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>130</v>
@@ -10282,7 +10279,7 @@
         <v>18804</v>
       </c>
       <c r="C56" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>132</v>
@@ -10317,7 +10314,7 @@
         <v>18805</v>
       </c>
       <c r="C57" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>134</v>
@@ -10352,7 +10349,7 @@
         <v>18806</v>
       </c>
       <c r="C58" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>136</v>
@@ -10387,7 +10384,7 @@
         <v>18807</v>
       </c>
       <c r="C59" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>138</v>
@@ -10422,7 +10419,7 @@
         <v>18808</v>
       </c>
       <c r="C60" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>140</v>
@@ -10457,7 +10454,7 @@
         <v>17701</v>
       </c>
       <c r="C61" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>142</v>
@@ -10489,7 +10486,7 @@
         <v>17700</v>
       </c>
       <c r="C62" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>145</v>
@@ -10521,7 +10518,7 @@
         <v>17639</v>
       </c>
       <c r="C63" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>147</v>
@@ -10553,7 +10550,7 @@
         <v>17638</v>
       </c>
       <c r="C64" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>150</v>
@@ -10585,7 +10582,7 @@
         <v>10607</v>
       </c>
       <c r="C65" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>152</v>
@@ -10614,7 +10611,7 @@
         <v>16918</v>
       </c>
       <c r="C66" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>154</v>
@@ -10643,7 +10640,7 @@
         <v>17303</v>
       </c>
       <c r="C67" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>156</v>
@@ -10672,7 +10669,7 @@
         <v>18641</v>
       </c>
       <c r="C68" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>157</v>
@@ -10704,7 +10701,7 @@
         <v>18640</v>
       </c>
       <c r="C69" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>160</v>
@@ -10736,13 +10733,13 @@
         <v>18998</v>
       </c>
       <c r="C70" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>162</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="F70">
         <v>132702003</v>
@@ -10768,7 +10765,7 @@
         <v>17549</v>
       </c>
       <c r="C71" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>163</v>
@@ -10800,7 +10797,7 @@
         <v>17548</v>
       </c>
       <c r="C72" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>166</v>
@@ -10832,7 +10829,7 @@
         <v>17062</v>
       </c>
       <c r="C73" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>168</v>
@@ -10861,7 +10858,7 @@
         <v>17673</v>
       </c>
       <c r="C74" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>170</v>
@@ -10893,7 +10890,7 @@
         <v>17672</v>
       </c>
       <c r="C75" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>173</v>
@@ -10925,7 +10922,7 @@
         <v>17728</v>
       </c>
       <c r="C76" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>175</v>
@@ -10954,7 +10951,7 @@
         <v>17591</v>
       </c>
       <c r="C77" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>177</v>
@@ -10986,7 +10983,7 @@
         <v>17590</v>
       </c>
       <c r="C78" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>180</v>
@@ -11018,7 +11015,7 @@
         <v>18707</v>
       </c>
       <c r="C79" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>182</v>
@@ -11050,7 +11047,7 @@
         <v>18706</v>
       </c>
       <c r="C80" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>185</v>
@@ -11082,7 +11079,7 @@
         <v>17413</v>
       </c>
       <c r="C81" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>187</v>
@@ -11114,7 +11111,7 @@
         <v>17412</v>
       </c>
       <c r="C82" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>190</v>
@@ -11146,7 +11143,7 @@
         <v>12800</v>
       </c>
       <c r="C83" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>192</v>
@@ -11175,7 +11172,7 @@
         <v>17143</v>
       </c>
       <c r="C84" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>194</v>
@@ -11204,7 +11201,7 @@
         <v>18858</v>
       </c>
       <c r="C85" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>196</v>
@@ -11239,7 +11236,7 @@
         <v>18859</v>
       </c>
       <c r="C86" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>198</v>
@@ -11274,7 +11271,7 @@
         <v>18860</v>
       </c>
       <c r="C87" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>200</v>
@@ -11309,7 +11306,7 @@
         <v>18861</v>
       </c>
       <c r="C88" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>202</v>
@@ -11344,7 +11341,7 @@
         <v>18862</v>
       </c>
       <c r="C89" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>204</v>
@@ -11379,7 +11376,7 @@
         <v>18863</v>
       </c>
       <c r="C90" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>205</v>
@@ -11414,7 +11411,7 @@
         <v>18864</v>
       </c>
       <c r="C91" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>206</v>
@@ -11449,7 +11446,7 @@
         <v>18865</v>
       </c>
       <c r="C92" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>207</v>
@@ -11484,7 +11481,7 @@
         <v>17681</v>
       </c>
       <c r="C93" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>209</v>
@@ -11516,7 +11513,7 @@
         <v>17680</v>
       </c>
       <c r="C94" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>212</v>
@@ -11548,7 +11545,7 @@
         <v>11954</v>
       </c>
       <c r="C95" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>214</v>
@@ -11577,7 +11574,7 @@
         <v>17170</v>
       </c>
       <c r="C96" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>216</v>
@@ -11606,7 +11603,7 @@
         <v>17171</v>
       </c>
       <c r="C97" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>218</v>
@@ -11635,7 +11632,7 @@
         <v>17627</v>
       </c>
       <c r="C98" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>220</v>
@@ -11667,7 +11664,7 @@
         <v>17626</v>
       </c>
       <c r="C99" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>223</v>
@@ -11699,7 +11696,7 @@
         <v>17535</v>
       </c>
       <c r="C100" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>225</v>
@@ -11731,7 +11728,7 @@
         <v>17534</v>
       </c>
       <c r="C101" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>228</v>
@@ -11763,7 +11760,7 @@
         <v>17443</v>
       </c>
       <c r="C102" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>230</v>
@@ -11795,7 +11792,7 @@
         <v>17442</v>
       </c>
       <c r="C103" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>233</v>
@@ -11827,7 +11824,7 @@
         <v>17877</v>
       </c>
       <c r="C104" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>235</v>
@@ -11859,7 +11856,7 @@
         <v>17711</v>
       </c>
       <c r="C105" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>237</v>
@@ -11891,7 +11888,7 @@
         <v>17710</v>
       </c>
       <c r="C106" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>240</v>
@@ -11923,7 +11920,7 @@
         <v>11660</v>
       </c>
       <c r="C107" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>242</v>
@@ -11952,7 +11949,7 @@
         <v>17589</v>
       </c>
       <c r="C108" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>244</v>
@@ -11984,7 +11981,7 @@
         <v>17588</v>
       </c>
       <c r="C109" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>247</v>
@@ -12016,7 +12013,7 @@
         <v>18618</v>
       </c>
       <c r="C110" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>249</v>
@@ -12048,7 +12045,7 @@
         <v>18617</v>
       </c>
       <c r="C111" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>252</v>
@@ -12237,7 +12234,7 @@
         <v>17621</v>
       </c>
       <c r="C117" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>264</v>
@@ -12269,7 +12266,7 @@
         <v>17620</v>
       </c>
       <c r="C118" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>267</v>
@@ -12301,7 +12298,7 @@
         <v>17637</v>
       </c>
       <c r="C119" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>269</v>
@@ -12333,7 +12330,7 @@
         <v>17636</v>
       </c>
       <c r="C120" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>272</v>
@@ -12365,7 +12362,7 @@
         <v>11643</v>
       </c>
       <c r="C121" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>274</v>
@@ -12394,7 +12391,7 @@
         <v>16411</v>
       </c>
       <c r="C122" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>276</v>
@@ -12423,7 +12420,7 @@
         <v>18434</v>
       </c>
       <c r="C123" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>278</v>
@@ -12452,7 +12449,7 @@
         <v>18809</v>
       </c>
       <c r="C124" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>280</v>
@@ -12487,7 +12484,7 @@
         <v>18810</v>
       </c>
       <c r="C125" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>282</v>
@@ -12522,7 +12519,7 @@
         <v>18811</v>
       </c>
       <c r="C126" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>284</v>
@@ -12557,7 +12554,7 @@
         <v>18812</v>
       </c>
       <c r="C127" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>286</v>
@@ -12592,7 +12589,7 @@
         <v>18813</v>
       </c>
       <c r="C128" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>288</v>
@@ -12627,7 +12624,7 @@
         <v>18814</v>
       </c>
       <c r="C129" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>290</v>
@@ -12662,7 +12659,7 @@
         <v>18815</v>
       </c>
       <c r="C130" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>292</v>
@@ -12697,7 +12694,7 @@
         <v>17377</v>
       </c>
       <c r="C131" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>294</v>
@@ -12729,7 +12726,7 @@
         <v>17376</v>
       </c>
       <c r="C132" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>297</v>
@@ -12761,7 +12758,7 @@
         <v>17527</v>
       </c>
       <c r="C133" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>299</v>
@@ -12793,7 +12790,7 @@
         <v>17526</v>
       </c>
       <c r="C134" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>302</v>
@@ -12825,7 +12822,7 @@
         <v>17555</v>
       </c>
       <c r="C135" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>304</v>
@@ -12857,7 +12854,7 @@
         <v>17554</v>
       </c>
       <c r="C136" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>307</v>
@@ -12889,7 +12886,7 @@
         <v>18631</v>
       </c>
       <c r="C137" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>309</v>
@@ -12921,7 +12918,7 @@
         <v>18630</v>
       </c>
       <c r="C138" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>312</v>
@@ -12953,7 +12950,7 @@
         <v>17393</v>
       </c>
       <c r="C139" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>314</v>
@@ -12985,7 +12982,7 @@
         <v>17392</v>
       </c>
       <c r="C140" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>317</v>
@@ -13017,7 +13014,7 @@
         <v>17166</v>
       </c>
       <c r="C141" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>319</v>
@@ -13046,7 +13043,7 @@
         <v>17651</v>
       </c>
       <c r="C142" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>321</v>
@@ -13078,7 +13075,7 @@
         <v>17650</v>
       </c>
       <c r="C143" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>324</v>
@@ -13110,7 +13107,7 @@
         <v>17493</v>
       </c>
       <c r="C144" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>326</v>
@@ -13142,7 +13139,7 @@
         <v>17492</v>
       </c>
       <c r="C145" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>329</v>
@@ -13174,7 +13171,7 @@
         <v>17748</v>
       </c>
       <c r="C146" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>331</v>
@@ -13203,7 +13200,7 @@
         <v>18910</v>
       </c>
       <c r="C147" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>333</v>
@@ -13235,7 +13232,7 @@
         <v>19006</v>
       </c>
       <c r="C148" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>335</v>
@@ -13267,7 +13264,7 @@
         <v>17427</v>
       </c>
       <c r="C149" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>336</v>
@@ -13299,7 +13296,7 @@
         <v>17426</v>
       </c>
       <c r="C150" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>339</v>
@@ -13331,7 +13328,7 @@
         <v>16923</v>
       </c>
       <c r="C151" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>341</v>
@@ -13360,7 +13357,7 @@
         <v>16902</v>
       </c>
       <c r="C152" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>343</v>
@@ -13389,7 +13386,7 @@
         <v>17796</v>
       </c>
       <c r="C153" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>345</v>
@@ -13421,7 +13418,7 @@
         <v>17795</v>
       </c>
       <c r="C154" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>348</v>
@@ -13453,7 +13450,7 @@
         <v>7374</v>
       </c>
       <c r="C155" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>350</v>
@@ -13482,7 +13479,7 @@
         <v>17755</v>
       </c>
       <c r="C156" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>352</v>
@@ -13511,7 +13508,7 @@
         <v>17551</v>
       </c>
       <c r="C157" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>354</v>
@@ -13543,7 +13540,7 @@
         <v>17550</v>
       </c>
       <c r="C158" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>357</v>
@@ -13575,7 +13572,7 @@
         <v>18750</v>
       </c>
       <c r="C159" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>359</v>
@@ -13607,7 +13604,7 @@
         <v>18749</v>
       </c>
       <c r="C160" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>362</v>
@@ -13668,7 +13665,7 @@
         <v>17433</v>
       </c>
       <c r="C162" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>366</v>
@@ -13700,7 +13697,7 @@
         <v>17432</v>
       </c>
       <c r="C163" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>369</v>
@@ -13732,7 +13729,7 @@
         <v>17469</v>
       </c>
       <c r="C164" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>371</v>
@@ -13764,7 +13761,7 @@
         <v>17468</v>
       </c>
       <c r="C165" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>374</v>
@@ -13796,7 +13793,7 @@
         <v>17841</v>
       </c>
       <c r="C166" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>376</v>
@@ -13828,7 +13825,7 @@
         <v>17844</v>
       </c>
       <c r="C167" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>378</v>
@@ -13860,7 +13857,7 @@
         <v>19002</v>
       </c>
       <c r="C168" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>380</v>
@@ -13889,7 +13886,7 @@
         <v>17383</v>
       </c>
       <c r="C169" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>381</v>
@@ -13921,7 +13918,7 @@
         <v>17382</v>
       </c>
       <c r="C170" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>384</v>
@@ -13982,7 +13979,7 @@
         <v>7382</v>
       </c>
       <c r="C172" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>388</v>
@@ -14011,7 +14008,7 @@
         <v>17709</v>
       </c>
       <c r="C173" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>390</v>
@@ -14043,7 +14040,7 @@
         <v>17708</v>
       </c>
       <c r="C174" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>393</v>
@@ -14075,7 +14072,7 @@
         <v>17757</v>
       </c>
       <c r="C175" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>395</v>
@@ -14101,7 +14098,7 @@
         <v>17829</v>
       </c>
       <c r="C176" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>396</v>
@@ -14127,7 +14124,7 @@
         <v>16848</v>
       </c>
       <c r="C177" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>397</v>
@@ -14153,13 +14150,13 @@
         <v>17836</v>
       </c>
       <c r="C178" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>398</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="F178">
         <v>197494006</v>
@@ -14185,7 +14182,7 @@
         <v>17881</v>
       </c>
       <c r="C179" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>399</v>
@@ -14211,7 +14208,7 @@
         <v>18817</v>
       </c>
       <c r="C180" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>400</v>
@@ -14246,7 +14243,7 @@
         <v>18818</v>
       </c>
       <c r="C181" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>402</v>
@@ -14281,7 +14278,7 @@
         <v>18819</v>
       </c>
       <c r="C182" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>404</v>
@@ -14316,7 +14313,7 @@
         <v>18816</v>
       </c>
       <c r="C183" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>406</v>
@@ -14351,7 +14348,7 @@
         <v>17575</v>
       </c>
       <c r="C184" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>408</v>
@@ -14383,7 +14380,7 @@
         <v>17574</v>
       </c>
       <c r="C185" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>411</v>
@@ -14415,7 +14412,7 @@
         <v>18629</v>
       </c>
       <c r="C186" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>413</v>
@@ -14447,7 +14444,7 @@
         <v>18628</v>
       </c>
       <c r="C187" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>416</v>
@@ -14479,7 +14476,7 @@
         <v>18604</v>
       </c>
       <c r="C188" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>418</v>
@@ -14511,7 +14508,7 @@
         <v>17563</v>
       </c>
       <c r="C189" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>420</v>
@@ -14543,7 +14540,7 @@
         <v>17562</v>
       </c>
       <c r="C190" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>423</v>
@@ -14575,7 +14572,7 @@
         <v>17633</v>
       </c>
       <c r="C191" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>425</v>
@@ -14607,7 +14604,7 @@
         <v>17632</v>
       </c>
       <c r="C192" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>428</v>
@@ -14639,7 +14636,7 @@
         <v>17381</v>
       </c>
       <c r="C193" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>430</v>
@@ -14671,7 +14668,7 @@
         <v>17380</v>
       </c>
       <c r="C194" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>433</v>
@@ -14703,7 +14700,7 @@
         <v>17747</v>
       </c>
       <c r="C195" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>435</v>
@@ -14729,7 +14726,7 @@
         <v>17375</v>
       </c>
       <c r="C196" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>436</v>
@@ -14761,7 +14758,7 @@
         <v>17374</v>
       </c>
       <c r="C197" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>439</v>
@@ -14793,7 +14790,7 @@
         <v>17421</v>
       </c>
       <c r="C198" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>441</v>
@@ -14825,7 +14822,7 @@
         <v>17420</v>
       </c>
       <c r="C199" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>444</v>
@@ -14857,7 +14854,7 @@
         <v>17059</v>
       </c>
       <c r="C200" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>446</v>
@@ -14886,7 +14883,7 @@
         <v>16903</v>
       </c>
       <c r="C201" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>448</v>
@@ -14915,7 +14912,7 @@
         <v>16904</v>
       </c>
       <c r="C202" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>450</v>
@@ -14944,7 +14941,7 @@
         <v>18709</v>
       </c>
       <c r="C203" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>452</v>
@@ -14976,7 +14973,7 @@
         <v>18708</v>
       </c>
       <c r="C204" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>455</v>
@@ -15008,7 +15005,7 @@
         <v>17693</v>
       </c>
       <c r="C205" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>457</v>
@@ -15040,7 +15037,7 @@
         <v>17692</v>
       </c>
       <c r="C206" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>460</v>
@@ -15072,7 +15069,7 @@
         <v>18999</v>
       </c>
       <c r="C207" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>462</v>
@@ -15104,7 +15101,7 @@
         <v>17489</v>
       </c>
       <c r="C208" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>464</v>
@@ -15136,7 +15133,7 @@
         <v>17488</v>
       </c>
       <c r="C209" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>467</v>
@@ -15168,7 +15165,7 @@
         <v>17455</v>
       </c>
       <c r="C210" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>469</v>
@@ -15200,7 +15197,7 @@
         <v>17454</v>
       </c>
       <c r="C211" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>472</v>
@@ -15232,7 +15229,7 @@
         <v>15078</v>
       </c>
       <c r="C212" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>474</v>
@@ -15267,7 +15264,7 @@
         <v>16402</v>
       </c>
       <c r="C213" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>476</v>
@@ -15299,7 +15296,7 @@
         <v>18820</v>
       </c>
       <c r="C214" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>478</v>
@@ -15334,7 +15331,7 @@
         <v>18821</v>
       </c>
       <c r="C215" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>480</v>
@@ -15369,7 +15366,7 @@
         <v>18822</v>
       </c>
       <c r="C216" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>482</v>
@@ -15404,7 +15401,7 @@
         <v>18823</v>
       </c>
       <c r="C217" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>484</v>
@@ -15439,7 +15436,7 @@
         <v>18824</v>
       </c>
       <c r="C218" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>486</v>
@@ -15474,7 +15471,7 @@
         <v>18825</v>
       </c>
       <c r="C219" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>488</v>
@@ -15509,7 +15506,7 @@
         <v>17545</v>
       </c>
       <c r="C220" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>490</v>
@@ -15541,7 +15538,7 @@
         <v>17544</v>
       </c>
       <c r="C221" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>493</v>
@@ -15573,7 +15570,7 @@
         <v>17695</v>
       </c>
       <c r="C222" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>495</v>
@@ -15605,7 +15602,7 @@
         <v>17694</v>
       </c>
       <c r="C223" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>498</v>
@@ -15637,7 +15634,7 @@
         <v>17720</v>
       </c>
       <c r="C224" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>500</v>
@@ -15663,7 +15660,7 @@
         <v>18933</v>
       </c>
       <c r="C225" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>501</v>
@@ -15692,7 +15689,7 @@
         <v>18934</v>
       </c>
       <c r="C226" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>503</v>
@@ -15753,7 +15750,7 @@
         <v>18964</v>
       </c>
       <c r="C228" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>507</v>
@@ -15785,7 +15782,7 @@
         <v>19031</v>
       </c>
       <c r="C229" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>509</v>
@@ -15814,7 +15811,7 @@
         <v>18754</v>
       </c>
       <c r="C230" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>511</v>
@@ -15846,7 +15843,7 @@
         <v>18753</v>
       </c>
       <c r="C231" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>514</v>
@@ -15878,7 +15875,7 @@
         <v>8816</v>
       </c>
       <c r="C232" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>516</v>
@@ -15907,7 +15904,7 @@
         <v>18367</v>
       </c>
       <c r="C233" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>518</v>
@@ -15936,7 +15933,7 @@
         <v>17453</v>
       </c>
       <c r="C234" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>520</v>
@@ -15968,7 +15965,7 @@
         <v>17452</v>
       </c>
       <c r="C235" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>523</v>
@@ -16000,7 +15997,7 @@
         <v>17722</v>
       </c>
       <c r="C236" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>525</v>
@@ -16026,7 +16023,7 @@
         <v>17445</v>
       </c>
       <c r="C237" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>526</v>
@@ -16058,7 +16055,7 @@
         <v>17444</v>
       </c>
       <c r="C238" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>529</v>
@@ -16090,7 +16087,7 @@
         <v>17742</v>
       </c>
       <c r="C239" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>531</v>
@@ -16116,7 +16113,7 @@
         <v>17766</v>
       </c>
       <c r="C240" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>532</v>
@@ -16142,7 +16139,7 @@
         <v>17629</v>
       </c>
       <c r="C241" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>533</v>
@@ -16174,7 +16171,7 @@
         <v>17628</v>
       </c>
       <c r="C242" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>536</v>
@@ -16206,7 +16203,7 @@
         <v>17727</v>
       </c>
       <c r="C243" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>538</v>
@@ -16232,7 +16229,7 @@
         <v>17743</v>
       </c>
       <c r="C244" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>539</v>
@@ -16258,7 +16255,7 @@
         <v>17391</v>
       </c>
       <c r="C245" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>540</v>
@@ -16290,7 +16287,7 @@
         <v>17390</v>
       </c>
       <c r="C246" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>543</v>
@@ -16322,7 +16319,7 @@
         <v>17679</v>
       </c>
       <c r="C247" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>545</v>
@@ -16354,7 +16351,7 @@
         <v>17678</v>
       </c>
       <c r="C248" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>548</v>
@@ -16386,7 +16383,7 @@
         <v>13719</v>
       </c>
       <c r="C249" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>550</v>
@@ -16415,7 +16412,7 @@
         <v>18544</v>
       </c>
       <c r="C250" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>552</v>
@@ -16444,7 +16441,7 @@
         <v>18551</v>
       </c>
       <c r="C251" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>553</v>
@@ -16473,7 +16470,7 @@
         <v>18559</v>
       </c>
       <c r="C252" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>554</v>
@@ -16502,7 +16499,7 @@
         <v>18605</v>
       </c>
       <c r="C253" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>555</v>
@@ -16531,7 +16528,7 @@
         <v>18826</v>
       </c>
       <c r="C254" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>556</v>
@@ -16566,7 +16563,7 @@
         <v>18827</v>
       </c>
       <c r="C255" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>558</v>
@@ -16601,7 +16598,7 @@
         <v>18828</v>
       </c>
       <c r="C256" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>560</v>
@@ -16636,7 +16633,7 @@
         <v>18829</v>
       </c>
       <c r="C257" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>562</v>
@@ -16671,7 +16668,7 @@
         <v>18830</v>
       </c>
       <c r="C258" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>564</v>
@@ -16706,7 +16703,7 @@
         <v>18831</v>
       </c>
       <c r="C259" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>566</v>
@@ -16741,7 +16738,7 @@
         <v>18832</v>
       </c>
       <c r="C260" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>568</v>
@@ -16776,7 +16773,7 @@
         <v>17379</v>
       </c>
       <c r="C261" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>570</v>
@@ -16808,7 +16805,7 @@
         <v>17378</v>
       </c>
       <c r="C262" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>573</v>
@@ -16840,7 +16837,7 @@
         <v>17753</v>
       </c>
       <c r="C263" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>575</v>
@@ -16869,7 +16866,7 @@
         <v>18935</v>
       </c>
       <c r="C264" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>577</v>
@@ -16898,7 +16895,7 @@
         <v>17473</v>
       </c>
       <c r="C265" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>579</v>
@@ -16930,7 +16927,7 @@
         <v>17472</v>
       </c>
       <c r="C266" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>582</v>
@@ -16962,7 +16959,7 @@
         <v>17725</v>
       </c>
       <c r="C267" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>584</v>
@@ -16991,7 +16988,7 @@
         <v>18703</v>
       </c>
       <c r="C268" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>586</v>
@@ -17023,7 +17020,7 @@
         <v>18702</v>
       </c>
       <c r="C269" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>589</v>
@@ -17055,7 +17052,7 @@
         <v>17415</v>
       </c>
       <c r="C270" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>591</v>
@@ -17087,7 +17084,7 @@
         <v>17414</v>
       </c>
       <c r="C271" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>594</v>
@@ -17119,7 +17116,7 @@
         <v>17736</v>
       </c>
       <c r="C272" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>596</v>
@@ -17137,7 +17134,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>44784217000</v>
       </c>
@@ -17145,7 +17142,7 @@
         <v>17746</v>
       </c>
       <c r="C273" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>597</v>
@@ -17163,7 +17160,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>44784217000</v>
       </c>
@@ -17171,7 +17168,7 @@
         <v>7399</v>
       </c>
       <c r="C274" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>598</v>
@@ -17189,7 +17186,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>44784217000</v>
       </c>
@@ -17197,7 +17194,7 @@
         <v>17878</v>
       </c>
       <c r="C275" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>599</v>
@@ -17221,7 +17218,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>44784217000</v>
       </c>
@@ -17229,7 +17226,7 @@
         <v>18866</v>
       </c>
       <c r="C276" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>601</v>
@@ -17253,7 +17250,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>4137275000</v>
       </c>
@@ -17261,7 +17258,7 @@
         <v>18651</v>
       </c>
       <c r="C277" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>603</v>
@@ -17285,7 +17282,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4137275000</v>
       </c>
@@ -17293,7 +17290,7 @@
         <v>18650</v>
       </c>
       <c r="C278" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>606</v>
@@ -17317,7 +17314,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>313459000</v>
       </c>
@@ -17325,7 +17322,7 @@
         <v>17677</v>
       </c>
       <c r="C279" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>608</v>
@@ -17349,7 +17346,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>313459000</v>
       </c>
@@ -17357,7 +17354,7 @@
         <v>17676</v>
       </c>
       <c r="C280" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>611</v>
@@ -17381,7 +17378,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>313800000</v>
       </c>
@@ -17389,7 +17386,7 @@
         <v>18705</v>
       </c>
       <c r="C281" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>613</v>
@@ -17413,7 +17410,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>313800000</v>
       </c>
@@ -17421,7 +17418,7 @@
         <v>18704</v>
       </c>
       <c r="C282" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>616</v>
@@ -17445,7 +17442,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>313800000</v>
       </c>
@@ -17453,7 +17450,7 @@
         <v>18570</v>
       </c>
       <c r="C283" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>618</v>
@@ -17474,7 +17471,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>4137275000</v>
       </c>
@@ -17482,7 +17479,7 @@
         <v>17784</v>
       </c>
       <c r="C284" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>619</v>
@@ -17506,7 +17503,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>4137275000</v>
       </c>
@@ -17514,7 +17511,7 @@
         <v>17783</v>
       </c>
       <c r="C285" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>622</v>
@@ -17538,7 +17535,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>4137275000</v>
       </c>
@@ -17546,7 +17543,7 @@
         <v>16234</v>
       </c>
       <c r="C286" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>624</v>
@@ -17564,7 +17561,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>4137275000</v>
       </c>
@@ -17572,7 +17569,7 @@
         <v>18510</v>
       </c>
       <c r="C287" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>625</v>
@@ -17592,11 +17589,8 @@
       <c r="K287" t="s">
         <v>621</v>
       </c>
-      <c r="L287" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>4189294000</v>
       </c>
@@ -17604,7 +17598,7 @@
         <v>18675</v>
       </c>
       <c r="C288" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>626</v>
@@ -17636,7 +17630,7 @@
         <v>18674</v>
       </c>
       <c r="C289" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>629</v>
@@ -17668,7 +17662,7 @@
         <v>18520</v>
       </c>
       <c r="C290" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>631</v>
@@ -17697,7 +17691,7 @@
         <v>18579</v>
       </c>
       <c r="C291" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>632</v>
@@ -17726,7 +17720,7 @@
         <v>17505</v>
       </c>
       <c r="C292" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>633</v>
@@ -17758,7 +17752,7 @@
         <v>17504</v>
       </c>
       <c r="C293" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>636</v>
@@ -17790,7 +17784,7 @@
         <v>17734</v>
       </c>
       <c r="C294" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>638</v>
@@ -17819,7 +17813,7 @@
         <v>7369</v>
       </c>
       <c r="C295" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>640</v>
@@ -17848,7 +17842,7 @@
         <v>17521</v>
       </c>
       <c r="C296" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>642</v>
@@ -17880,7 +17874,7 @@
         <v>17520</v>
       </c>
       <c r="C297" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>645</v>
@@ -17912,7 +17906,7 @@
         <v>17760</v>
       </c>
       <c r="C298" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>647</v>
@@ -17938,7 +17932,7 @@
         <v>17411</v>
       </c>
       <c r="C299" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>648</v>
@@ -17970,7 +17964,7 @@
         <v>17410</v>
       </c>
       <c r="C300" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>651</v>
@@ -18002,7 +17996,7 @@
         <v>17741</v>
       </c>
       <c r="C301" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>653</v>
@@ -18031,7 +18025,7 @@
         <v>17767</v>
       </c>
       <c r="C302" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>655</v>
@@ -18060,7 +18054,7 @@
         <v>17768</v>
       </c>
       <c r="C303" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>657</v>
@@ -18089,7 +18083,7 @@
         <v>18775</v>
       </c>
       <c r="C304" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>659</v>
@@ -18115,7 +18109,7 @@
         <v>18742</v>
       </c>
       <c r="C305" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>660</v>
@@ -18147,7 +18141,7 @@
         <v>18741</v>
       </c>
       <c r="C306" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>663</v>
@@ -18179,7 +18173,7 @@
         <v>17409</v>
       </c>
       <c r="C307" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>665</v>
@@ -18211,7 +18205,7 @@
         <v>17408</v>
       </c>
       <c r="C308" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>668</v>
@@ -18243,7 +18237,7 @@
         <v>17583</v>
       </c>
       <c r="C309" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>670</v>
@@ -18275,7 +18269,7 @@
         <v>17582</v>
       </c>
       <c r="C310" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>673</v>
@@ -18307,13 +18301,13 @@
         <v>17843</v>
       </c>
       <c r="C311" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>675</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="F311">
         <v>318736003</v>
@@ -18339,7 +18333,7 @@
         <v>17491</v>
       </c>
       <c r="C312" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>676</v>
@@ -18371,7 +18365,7 @@
         <v>17490</v>
       </c>
       <c r="C313" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>679</v>
@@ -18403,7 +18397,7 @@
         <v>17609</v>
       </c>
       <c r="C314" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>681</v>
@@ -18435,7 +18429,7 @@
         <v>17608</v>
       </c>
       <c r="C315" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>684</v>
@@ -18467,7 +18461,7 @@
         <v>17385</v>
       </c>
       <c r="C316" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>686</v>
@@ -18499,7 +18493,7 @@
         <v>17384</v>
       </c>
       <c r="C317" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>689</v>
@@ -18531,13 +18525,13 @@
         <v>18940</v>
       </c>
       <c r="C318" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>691</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="F318">
         <v>319049003</v>
@@ -18563,7 +18557,7 @@
         <v>18691</v>
       </c>
       <c r="C319" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>692</v>
@@ -18595,7 +18589,7 @@
         <v>18690</v>
       </c>
       <c r="C320" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>695</v>
@@ -18627,7 +18621,7 @@
         <v>17788</v>
       </c>
       <c r="C321" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>697</v>
@@ -18659,7 +18653,7 @@
         <v>17787</v>
       </c>
       <c r="C322" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>700</v>
@@ -18691,7 +18685,7 @@
         <v>17625</v>
       </c>
       <c r="C323" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>702</v>
@@ -18723,7 +18717,7 @@
         <v>17624</v>
       </c>
       <c r="C324" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>705</v>
@@ -18755,7 +18749,7 @@
         <v>17401</v>
       </c>
       <c r="C325" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>707</v>
@@ -18787,7 +18781,7 @@
         <v>17400</v>
       </c>
       <c r="C326" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>710</v>
@@ -18819,7 +18813,7 @@
         <v>17744</v>
       </c>
       <c r="C327" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>712</v>
@@ -18848,7 +18842,7 @@
         <v>17745</v>
       </c>
       <c r="C328" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>714</v>
@@ -18877,7 +18871,7 @@
         <v>17503</v>
       </c>
       <c r="C329" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>716</v>
@@ -18909,7 +18903,7 @@
         <v>17502</v>
       </c>
       <c r="C330" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>719</v>
@@ -18941,7 +18935,7 @@
         <v>17756</v>
       </c>
       <c r="C331" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>721</v>
@@ -18967,7 +18961,7 @@
         <v>17615</v>
       </c>
       <c r="C332" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>722</v>
@@ -18999,7 +18993,7 @@
         <v>17614</v>
       </c>
       <c r="C333" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>725</v>
@@ -19031,7 +19025,7 @@
         <v>17820</v>
       </c>
       <c r="C334" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>727</v>
@@ -19063,7 +19057,7 @@
         <v>17819</v>
       </c>
       <c r="C335" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>730</v>
@@ -19095,7 +19089,7 @@
         <v>17750</v>
       </c>
       <c r="C336" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>732</v>
@@ -19121,7 +19115,7 @@
         <v>18616</v>
       </c>
       <c r="C337" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>733</v>
@@ -19153,7 +19147,7 @@
         <v>18615</v>
       </c>
       <c r="C338" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>736</v>
@@ -19185,7 +19179,7 @@
         <v>18567</v>
       </c>
       <c r="C339" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>738</v>
@@ -19214,7 +19208,7 @@
         <v>18568</v>
       </c>
       <c r="C340" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>739</v>
@@ -19243,7 +19237,7 @@
         <v>18503</v>
       </c>
       <c r="C341" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>740</v>
@@ -19269,7 +19263,7 @@
         <v>17389</v>
       </c>
       <c r="C342" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>741</v>
@@ -19301,7 +19295,7 @@
         <v>17388</v>
       </c>
       <c r="C343" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>744</v>
@@ -19333,7 +19327,7 @@
         <v>18697</v>
       </c>
       <c r="C344" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>746</v>
@@ -19365,7 +19359,7 @@
         <v>18696</v>
       </c>
       <c r="C345" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>749</v>
@@ -19397,7 +19391,7 @@
         <v>18687</v>
       </c>
       <c r="C346" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>751</v>
@@ -19429,7 +19423,7 @@
         <v>18686</v>
       </c>
       <c r="C347" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>754</v>
@@ -19461,7 +19455,7 @@
         <v>17587</v>
       </c>
       <c r="C348" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>756</v>
@@ -19493,7 +19487,7 @@
         <v>17586</v>
       </c>
       <c r="C349" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>759</v>
@@ -19525,7 +19519,7 @@
         <v>17093</v>
       </c>
       <c r="C350" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>761</v>
@@ -19554,7 +19548,7 @@
         <v>18542</v>
       </c>
       <c r="C351" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>763</v>
@@ -19583,7 +19577,7 @@
         <v>18683</v>
       </c>
       <c r="C352" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>764</v>
@@ -19615,7 +19609,7 @@
         <v>18682</v>
       </c>
       <c r="C353" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>767</v>
@@ -19647,7 +19641,7 @@
         <v>18521</v>
       </c>
       <c r="C354" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>769</v>
@@ -19673,7 +19667,7 @@
         <v>18657</v>
       </c>
       <c r="C355" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>770</v>
@@ -19705,7 +19699,7 @@
         <v>18656</v>
       </c>
       <c r="C356" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>773</v>
@@ -19737,7 +19731,7 @@
         <v>17435</v>
       </c>
       <c r="C357" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>775</v>
@@ -19769,7 +19763,7 @@
         <v>17434</v>
       </c>
       <c r="C358" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>778</v>
@@ -19801,7 +19795,7 @@
         <v>17752</v>
       </c>
       <c r="C359" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>780</v>
@@ -19827,7 +19821,7 @@
         <v>18937</v>
       </c>
       <c r="C360" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>781</v>
@@ -19856,7 +19850,7 @@
         <v>17671</v>
       </c>
       <c r="C361" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>783</v>
@@ -19888,7 +19882,7 @@
         <v>17670</v>
       </c>
       <c r="C362" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>786</v>
@@ -19920,7 +19914,7 @@
         <v>18502</v>
       </c>
       <c r="C363" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>788</v>
@@ -19949,7 +19943,7 @@
         <v>18639</v>
       </c>
       <c r="C364" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>789</v>
@@ -19981,7 +19975,7 @@
         <v>18638</v>
       </c>
       <c r="C365" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>792</v>
@@ -20013,7 +20007,7 @@
         <v>17501</v>
       </c>
       <c r="C366" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>794</v>
@@ -20045,7 +20039,7 @@
         <v>17500</v>
       </c>
       <c r="C367" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>797</v>
@@ -20077,7 +20071,7 @@
         <v>19003</v>
       </c>
       <c r="C368" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>799</v>
@@ -20106,7 +20100,7 @@
         <v>17659</v>
       </c>
       <c r="C369" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>800</v>
@@ -20138,7 +20132,7 @@
         <v>17658</v>
       </c>
       <c r="C370" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>803</v>
@@ -20170,7 +20164,7 @@
         <v>17661</v>
       </c>
       <c r="C371" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>805</v>
@@ -20202,7 +20196,7 @@
         <v>17660</v>
       </c>
       <c r="C372" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>808</v>
@@ -20234,7 +20228,7 @@
         <v>17395</v>
       </c>
       <c r="C373" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>810</v>
@@ -20266,7 +20260,7 @@
         <v>17394</v>
       </c>
       <c r="C374" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>813</v>
@@ -20298,7 +20292,7 @@
         <v>18982</v>
       </c>
       <c r="C375" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>815</v>
@@ -20330,7 +20324,7 @@
         <v>17479</v>
       </c>
       <c r="C376" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>817</v>
@@ -20362,7 +20356,7 @@
         <v>17478</v>
       </c>
       <c r="C377" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>820</v>
@@ -20394,13 +20388,13 @@
         <v>17833</v>
       </c>
       <c r="C378" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>822</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="F378">
         <v>380378003</v>
@@ -20426,13 +20420,13 @@
         <v>17834</v>
       </c>
       <c r="C379" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>823</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="F379">
         <v>380378004</v>
@@ -20441,7 +20435,7 @@
         <v>380378</v>
       </c>
       <c r="H379" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="J379">
         <v>380378000</v>
@@ -20458,13 +20452,13 @@
         <v>18379</v>
       </c>
       <c r="C380" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>824</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="F380">
         <v>380378005</v>
@@ -20490,7 +20484,7 @@
         <v>18833</v>
       </c>
       <c r="C381" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>825</v>
@@ -20522,7 +20516,7 @@
         <v>18834</v>
       </c>
       <c r="C382" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>827</v>
@@ -20554,7 +20548,7 @@
         <v>18835</v>
       </c>
       <c r="C383" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>829</v>
@@ -20586,7 +20580,7 @@
         <v>18836</v>
       </c>
       <c r="C384" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>831</v>
@@ -20618,7 +20612,7 @@
         <v>18837</v>
       </c>
       <c r="C385" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>833</v>
@@ -20650,7 +20644,7 @@
         <v>18633</v>
       </c>
       <c r="C386" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>835</v>
@@ -20682,7 +20676,7 @@
         <v>18632</v>
       </c>
       <c r="C387" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>838</v>
@@ -20714,7 +20708,7 @@
         <v>18663</v>
       </c>
       <c r="C388" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>840</v>
@@ -20746,7 +20740,7 @@
         <v>18662</v>
       </c>
       <c r="C389" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>843</v>
@@ -20778,7 +20772,7 @@
         <v>17619</v>
       </c>
       <c r="C390" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>845</v>
@@ -20810,7 +20804,7 @@
         <v>17618</v>
       </c>
       <c r="C391" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>848</v>
@@ -20842,7 +20836,7 @@
         <v>17790</v>
       </c>
       <c r="C392" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>850</v>
@@ -20874,7 +20868,7 @@
         <v>17789</v>
       </c>
       <c r="C393" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>853</v>
@@ -20906,7 +20900,7 @@
         <v>17749</v>
       </c>
       <c r="C394" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>855</v>
@@ -20932,7 +20926,7 @@
         <v>17439</v>
       </c>
       <c r="C395" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>856</v>
@@ -20964,7 +20958,7 @@
         <v>17438</v>
       </c>
       <c r="C396" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>859</v>
@@ -20996,7 +20990,7 @@
         <v>18625</v>
       </c>
       <c r="C397" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>861</v>
@@ -21028,7 +21022,7 @@
         <v>18624</v>
       </c>
       <c r="C398" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>864</v>
@@ -21060,7 +21054,7 @@
         <v>17397</v>
       </c>
       <c r="C399" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>866</v>
@@ -21092,7 +21086,7 @@
         <v>17396</v>
       </c>
       <c r="C400" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>869</v>
@@ -21124,7 +21118,7 @@
         <v>17786</v>
       </c>
       <c r="C401" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>871</v>
@@ -21156,7 +21150,7 @@
         <v>17785</v>
       </c>
       <c r="C402" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>874</v>
@@ -21188,7 +21182,7 @@
         <v>7377</v>
       </c>
       <c r="C403" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>876</v>
@@ -21214,7 +21208,7 @@
         <v>17519</v>
       </c>
       <c r="C404" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>877</v>
@@ -21246,7 +21240,7 @@
         <v>17518</v>
       </c>
       <c r="C405" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>880</v>
@@ -21278,7 +21272,7 @@
         <v>17689</v>
       </c>
       <c r="C406" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>882</v>
@@ -21310,7 +21304,7 @@
         <v>17688</v>
       </c>
       <c r="C407" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>885</v>
@@ -21342,7 +21336,7 @@
         <v>18573</v>
       </c>
       <c r="C408" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D408" s="1" t="s">
         <v>887</v>
@@ -21371,7 +21365,7 @@
         <v>18576</v>
       </c>
       <c r="C409" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>888</v>
@@ -21400,7 +21394,7 @@
         <v>17617</v>
       </c>
       <c r="C410" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>889</v>
@@ -21432,7 +21426,7 @@
         <v>17616</v>
       </c>
       <c r="C411" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>892</v>
@@ -21464,7 +21458,7 @@
         <v>18673</v>
       </c>
       <c r="C412" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>894</v>
@@ -21496,7 +21490,7 @@
         <v>18672</v>
       </c>
       <c r="C413" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>897</v>
@@ -21528,7 +21522,7 @@
         <v>17475</v>
       </c>
       <c r="C414" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>899</v>
@@ -21560,7 +21554,7 @@
         <v>17474</v>
       </c>
       <c r="C415" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D415" s="1" t="s">
         <v>902</v>
@@ -21592,7 +21586,7 @@
         <v>17601</v>
       </c>
       <c r="C416" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>904</v>
@@ -21624,7 +21618,7 @@
         <v>17600</v>
       </c>
       <c r="C417" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>907</v>
@@ -21656,7 +21650,7 @@
         <v>17763</v>
       </c>
       <c r="C418" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>909</v>
@@ -21685,7 +21679,7 @@
         <v>17511</v>
       </c>
       <c r="C419" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>911</v>
@@ -21717,7 +21711,7 @@
         <v>17510</v>
       </c>
       <c r="C420" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>914</v>
@@ -21749,7 +21743,7 @@
         <v>17146</v>
       </c>
       <c r="C421" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>916</v>
@@ -21778,7 +21772,7 @@
         <v>17691</v>
       </c>
       <c r="C422" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>918</v>
@@ -21810,7 +21804,7 @@
         <v>17690</v>
       </c>
       <c r="C423" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>921</v>
@@ -21842,7 +21836,7 @@
         <v>17719</v>
       </c>
       <c r="C424" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>923</v>
@@ -21868,7 +21862,7 @@
         <v>17765</v>
       </c>
       <c r="C425" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>924</v>
@@ -21894,7 +21888,7 @@
         <v>17541</v>
       </c>
       <c r="C426" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>925</v>
@@ -21926,7 +21920,7 @@
         <v>17540</v>
       </c>
       <c r="C427" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>928</v>
@@ -21958,7 +21952,7 @@
         <v>17423</v>
       </c>
       <c r="C428" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>930</v>
@@ -21990,7 +21984,7 @@
         <v>17422</v>
       </c>
       <c r="C429" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>933</v>
@@ -22022,13 +22016,13 @@
         <v>17845</v>
       </c>
       <c r="C430" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>935</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="F430">
         <v>434592003</v>
@@ -22054,7 +22048,7 @@
         <v>17517</v>
       </c>
       <c r="C431" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>936</v>
@@ -22086,7 +22080,7 @@
         <v>17516</v>
       </c>
       <c r="C432" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>939</v>
@@ -22118,7 +22112,7 @@
         <v>18699</v>
       </c>
       <c r="C433" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>941</v>
@@ -22150,7 +22144,7 @@
         <v>18698</v>
       </c>
       <c r="C434" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>944</v>
@@ -22182,7 +22176,7 @@
         <v>17547</v>
       </c>
       <c r="C435" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>946</v>
@@ -22214,7 +22208,7 @@
         <v>17546</v>
       </c>
       <c r="C436" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>949</v>
@@ -22246,7 +22240,7 @@
         <v>17669</v>
       </c>
       <c r="C437" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>951</v>
@@ -22278,7 +22272,7 @@
         <v>17668</v>
       </c>
       <c r="C438" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>954</v>
@@ -22310,7 +22304,7 @@
         <v>18990</v>
       </c>
       <c r="C439" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>956</v>
@@ -22342,7 +22336,7 @@
         <v>18991</v>
       </c>
       <c r="C440" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>958</v>
@@ -22374,7 +22368,7 @@
         <v>17641</v>
       </c>
       <c r="C441" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>960</v>
@@ -22406,7 +22400,7 @@
         <v>17640</v>
       </c>
       <c r="C442" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>963</v>
@@ -22438,7 +22432,7 @@
         <v>16526</v>
       </c>
       <c r="C443" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>965</v>
@@ -22464,7 +22458,7 @@
         <v>17447</v>
       </c>
       <c r="C444" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>966</v>
@@ -22496,7 +22490,7 @@
         <v>17446</v>
       </c>
       <c r="C445" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>969</v>
@@ -22528,7 +22522,7 @@
         <v>18677</v>
       </c>
       <c r="C446" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>971</v>
@@ -22560,7 +22554,7 @@
         <v>18676</v>
       </c>
       <c r="C447" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>974</v>
@@ -22592,7 +22586,7 @@
         <v>18574</v>
       </c>
       <c r="C448" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>976</v>
@@ -22618,7 +22612,7 @@
         <v>17818</v>
       </c>
       <c r="C449" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>977</v>
@@ -22650,7 +22644,7 @@
         <v>17817</v>
       </c>
       <c r="C450" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>980</v>
@@ -22682,7 +22676,7 @@
         <v>17425</v>
       </c>
       <c r="C451" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>982</v>
@@ -22714,7 +22708,7 @@
         <v>17424</v>
       </c>
       <c r="C452" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>985</v>
@@ -22746,7 +22740,7 @@
         <v>18572</v>
       </c>
       <c r="C453" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D453" s="1" t="s">
         <v>987</v>
@@ -22775,13 +22769,13 @@
         <v>18140</v>
       </c>
       <c r="C454" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D454" s="1" t="s">
         <v>988</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="F454">
         <v>436642004</v>
@@ -22807,7 +22801,7 @@
         <v>17429</v>
       </c>
       <c r="C455" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>989</v>
@@ -22839,7 +22833,7 @@
         <v>17428</v>
       </c>
       <c r="C456" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>992</v>
@@ -22871,7 +22865,7 @@
         <v>18867</v>
       </c>
       <c r="C457" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>994</v>
@@ -22903,7 +22897,7 @@
         <v>18868</v>
       </c>
       <c r="C458" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>996</v>
@@ -22935,7 +22929,7 @@
         <v>18869</v>
       </c>
       <c r="C459" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>998</v>
@@ -22967,7 +22961,7 @@
         <v>17631</v>
       </c>
       <c r="C460" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>1000</v>
@@ -22999,7 +22993,7 @@
         <v>17630</v>
       </c>
       <c r="C461" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>1003</v>
@@ -23031,7 +23025,7 @@
         <v>17533</v>
       </c>
       <c r="C462" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>1005</v>
@@ -23063,7 +23057,7 @@
         <v>17532</v>
       </c>
       <c r="C463" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>1008</v>
@@ -23095,13 +23089,13 @@
         <v>17869</v>
       </c>
       <c r="C464" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="F464">
         <v>436962003</v>
@@ -23127,13 +23121,13 @@
         <v>17870</v>
       </c>
       <c r="C465" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="F465">
         <v>436962004</v>
@@ -23142,7 +23136,7 @@
         <v>436962</v>
       </c>
       <c r="H465" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="J465">
         <v>436962000</v>
@@ -23159,7 +23153,7 @@
         <v>17403</v>
       </c>
       <c r="C466" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D466" s="1" t="s">
         <v>1012</v>
@@ -23191,7 +23185,7 @@
         <v>17402</v>
       </c>
       <c r="C467" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>1015</v>
@@ -23223,7 +23217,7 @@
         <v>10761</v>
       </c>
       <c r="C468" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>1017</v>
@@ -23252,7 +23246,7 @@
         <v>17140</v>
       </c>
       <c r="C469" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>1019</v>
@@ -23281,7 +23275,7 @@
         <v>18871</v>
       </c>
       <c r="C470" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>1021</v>
@@ -23316,7 +23310,7 @@
         <v>18872</v>
       </c>
       <c r="C471" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>1023</v>
@@ -23351,7 +23345,7 @@
         <v>18873</v>
       </c>
       <c r="C472" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>1025</v>
@@ -23386,7 +23380,7 @@
         <v>18874</v>
       </c>
       <c r="C473" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>1027</v>
@@ -23421,7 +23415,7 @@
         <v>18875</v>
       </c>
       <c r="C474" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>1029</v>
@@ -23456,7 +23450,7 @@
         <v>18876</v>
       </c>
       <c r="C475" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>1031</v>
@@ -23491,7 +23485,7 @@
         <v>18877</v>
       </c>
       <c r="C476" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>1033</v>
@@ -23526,7 +23520,7 @@
         <v>18878</v>
       </c>
       <c r="C477" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>1035</v>
@@ -23561,7 +23555,7 @@
         <v>18879</v>
       </c>
       <c r="C478" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>1037</v>
@@ -23596,7 +23590,7 @@
         <v>18870</v>
       </c>
       <c r="C479" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>1039</v>
@@ -23631,7 +23625,7 @@
         <v>17657</v>
       </c>
       <c r="C480" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>1041</v>
@@ -23663,7 +23657,7 @@
         <v>17656</v>
       </c>
       <c r="C481" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>1044</v>
@@ -23695,7 +23689,7 @@
         <v>17998</v>
       </c>
       <c r="C482" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>1046</v>
@@ -23721,7 +23715,7 @@
         <v>18333</v>
       </c>
       <c r="C483" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>1047</v>
@@ -23747,7 +23741,7 @@
         <v>18334</v>
       </c>
       <c r="C484" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>1048</v>
@@ -23773,7 +23767,7 @@
         <v>18332</v>
       </c>
       <c r="C485" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>1049</v>
@@ -23799,7 +23793,7 @@
         <v>17585</v>
       </c>
       <c r="C486" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>1050</v>
@@ -23831,7 +23825,7 @@
         <v>17584</v>
       </c>
       <c r="C487" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>1053</v>
@@ -23863,7 +23857,7 @@
         <v>18838</v>
       </c>
       <c r="C488" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>1055</v>
@@ -23898,7 +23892,7 @@
         <v>18839</v>
       </c>
       <c r="C489" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>1057</v>
@@ -23933,7 +23927,7 @@
         <v>18840</v>
       </c>
       <c r="C490" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>1059</v>
@@ -23968,7 +23962,7 @@
         <v>18841</v>
       </c>
       <c r="C491" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>1061</v>
@@ -24003,7 +23997,7 @@
         <v>18740</v>
       </c>
       <c r="C492" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>1063</v>
@@ -24035,7 +24029,7 @@
         <v>18739</v>
       </c>
       <c r="C493" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>1066</v>
@@ -24067,7 +24061,7 @@
         <v>18770</v>
       </c>
       <c r="C494" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>1068</v>
@@ -24093,7 +24087,7 @@
         <v>17495</v>
       </c>
       <c r="C495" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>1069</v>
@@ -24125,7 +24119,7 @@
         <v>17494</v>
       </c>
       <c r="C496" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>1072</v>
@@ -24157,7 +24151,7 @@
         <v>17483</v>
       </c>
       <c r="C497" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>1074</v>
@@ -24189,7 +24183,7 @@
         <v>17482</v>
       </c>
       <c r="C498" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>1077</v>
@@ -24221,7 +24215,7 @@
         <v>17721</v>
       </c>
       <c r="C499" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D499" s="1" t="s">
         <v>1079</v>
@@ -24247,7 +24241,7 @@
         <v>17525</v>
       </c>
       <c r="C500" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D500" s="1" t="s">
         <v>1080</v>
@@ -24279,7 +24273,7 @@
         <v>17524</v>
       </c>
       <c r="C501" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>1083</v>
@@ -24311,7 +24305,7 @@
         <v>17607</v>
       </c>
       <c r="C502" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>1085</v>
@@ -24343,7 +24337,7 @@
         <v>17606</v>
       </c>
       <c r="C503" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>1088</v>
@@ -24375,7 +24369,7 @@
         <v>17605</v>
       </c>
       <c r="C504" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D504" s="1" t="s">
         <v>1090</v>
@@ -24407,7 +24401,7 @@
         <v>17604</v>
       </c>
       <c r="C505" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>1093</v>
@@ -24439,7 +24433,7 @@
         <v>17417</v>
       </c>
       <c r="C506" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>1095</v>
@@ -24471,7 +24465,7 @@
         <v>17416</v>
       </c>
       <c r="C507" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D507" s="1" t="s">
         <v>1098</v>
@@ -24503,7 +24497,7 @@
         <v>18693</v>
       </c>
       <c r="C508" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>1100</v>
@@ -24535,7 +24529,7 @@
         <v>18692</v>
       </c>
       <c r="C509" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>1103</v>
@@ -24567,7 +24561,7 @@
         <v>17513</v>
       </c>
       <c r="C510" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>1105</v>
@@ -24599,7 +24593,7 @@
         <v>17512</v>
       </c>
       <c r="C511" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D511" s="1" t="s">
         <v>1108</v>
@@ -24631,13 +24625,13 @@
         <v>17716</v>
       </c>
       <c r="C512" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D512" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="F512">
         <v>439727004</v>
@@ -24663,7 +24657,7 @@
         <v>17419</v>
       </c>
       <c r="C513" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>1111</v>
@@ -24695,7 +24689,7 @@
         <v>17418</v>
       </c>
       <c r="C514" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>1114</v>
@@ -24727,7 +24721,7 @@
         <v>18880</v>
       </c>
       <c r="C515" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D515" s="1" t="s">
         <v>1116</v>
@@ -24759,7 +24753,7 @@
         <v>18881</v>
       </c>
       <c r="C516" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D516" s="1" t="s">
         <v>1118</v>
@@ -24791,7 +24785,7 @@
         <v>17399</v>
       </c>
       <c r="C517" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>1120</v>
@@ -24823,7 +24817,7 @@
         <v>17398</v>
       </c>
       <c r="C518" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D518" s="1" t="s">
         <v>1123</v>
@@ -24855,7 +24849,7 @@
         <v>18685</v>
       </c>
       <c r="C519" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>1125</v>
@@ -24887,7 +24881,7 @@
         <v>18684</v>
       </c>
       <c r="C520" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D520" s="1" t="s">
         <v>1128</v>
@@ -24919,7 +24913,7 @@
         <v>17463</v>
       </c>
       <c r="C521" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="D521" s="1" t="s">
         <v>1130</v>
@@ -24951,7 +24945,7 @@
         <v>17462</v>
       </c>
       <c r="C522" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>1133</v>
@@ -24983,7 +24977,7 @@
         <v>16527</v>
       </c>
       <c r="C523" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D523" s="1" t="s">
         <v>1135</v>
@@ -25009,13 +25003,13 @@
         <v>17875</v>
       </c>
       <c r="C524" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D524" s="1" t="s">
         <v>1136</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="F524">
         <v>440383004</v>
@@ -25041,7 +25035,7 @@
         <v>17645</v>
       </c>
       <c r="C525" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="D525" s="1" t="s">
         <v>1137</v>
@@ -25073,7 +25067,7 @@
         <v>17644</v>
       </c>
       <c r="C526" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D526" s="1" t="s">
         <v>1140</v>
@@ -25105,7 +25099,7 @@
         <v>17732</v>
       </c>
       <c r="C527" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>1142</v>
@@ -25131,13 +25125,13 @@
         <v>17858</v>
       </c>
       <c r="C528" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D528" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="F528">
         <v>440417004</v>
@@ -25163,13 +25157,13 @@
         <v>17857</v>
       </c>
       <c r="C529" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D529" s="1" t="s">
         <v>1144</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="F529">
         <v>440417005</v>
@@ -25195,7 +25189,7 @@
         <v>18842</v>
       </c>
       <c r="C530" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D530" s="1" t="s">
         <v>1145</v>
@@ -25230,7 +25224,7 @@
         <v>18843</v>
       </c>
       <c r="C531" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D531" s="1" t="s">
         <v>1147</v>
@@ -25265,7 +25259,7 @@
         <v>18844</v>
       </c>
       <c r="C532" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D532" s="1" t="s">
         <v>1149</v>
@@ -25300,7 +25294,7 @@
         <v>18845</v>
       </c>
       <c r="C533" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D533" s="1" t="s">
         <v>1151</v>
@@ -25335,7 +25329,7 @@
         <v>17497</v>
       </c>
       <c r="C534" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D534" s="1" t="s">
         <v>1153</v>
@@ -25367,7 +25361,7 @@
         <v>17496</v>
       </c>
       <c r="C535" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D535" s="1" t="s">
         <v>1156</v>
@@ -25399,7 +25393,7 @@
         <v>17685</v>
       </c>
       <c r="C536" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D536" s="1" t="s">
         <v>1158</v>
@@ -25431,7 +25425,7 @@
         <v>17684</v>
       </c>
       <c r="C537" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D537" s="1" t="s">
         <v>1161</v>
@@ -25463,7 +25457,7 @@
         <v>17816</v>
       </c>
       <c r="C538" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D538" s="1" t="s">
         <v>1163</v>
@@ -25495,7 +25489,7 @@
         <v>17815</v>
       </c>
       <c r="C539" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D539" s="1" t="s">
         <v>1166</v>
@@ -25527,7 +25521,7 @@
         <v>17581</v>
       </c>
       <c r="C540" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D540" s="1" t="s">
         <v>1168</v>
@@ -25559,7 +25553,7 @@
         <v>17580</v>
       </c>
       <c r="C541" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D541" s="1" t="s">
         <v>1171</v>
@@ -25591,7 +25585,7 @@
         <v>18620</v>
       </c>
       <c r="C542" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D542" s="1" t="s">
         <v>1173</v>
@@ -25623,7 +25617,7 @@
         <v>18619</v>
       </c>
       <c r="C543" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D543" s="1" t="s">
         <v>1176</v>
@@ -25655,7 +25649,7 @@
         <v>18487</v>
       </c>
       <c r="C544" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>1178</v>
@@ -25684,7 +25678,7 @@
         <v>18602</v>
       </c>
       <c r="C545" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D545" s="1" t="s">
         <v>1179</v>
@@ -25716,7 +25710,7 @@
         <v>17603</v>
       </c>
       <c r="C546" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D546" s="1" t="s">
         <v>1181</v>
@@ -25748,7 +25742,7 @@
         <v>17602</v>
       </c>
       <c r="C547" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D547" s="1" t="s">
         <v>1184</v>
@@ -25780,7 +25774,7 @@
         <v>17713</v>
       </c>
       <c r="C548" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D548" s="1" t="s">
         <v>1186</v>
@@ -25812,7 +25806,7 @@
         <v>17712</v>
       </c>
       <c r="C549" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D549" s="1" t="s">
         <v>1189</v>
@@ -25844,7 +25838,7 @@
         <v>19005</v>
       </c>
       <c r="C550" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D550" s="1" t="s">
         <v>1191</v>
@@ -25873,7 +25867,7 @@
         <v>17407</v>
       </c>
       <c r="C551" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D551" s="1" t="s">
         <v>1192</v>
@@ -25905,7 +25899,7 @@
         <v>17406</v>
       </c>
       <c r="C552" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D552" s="1" t="s">
         <v>1195</v>
@@ -25937,13 +25931,13 @@
         <v>17826</v>
       </c>
       <c r="C553" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D553" s="1" t="s">
         <v>1197</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="F553">
         <v>441542003</v>
@@ -25969,13 +25963,13 @@
         <v>17842</v>
       </c>
       <c r="C554" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="D554" s="1" t="s">
         <v>1198</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="F554">
         <v>441542004</v>
@@ -25984,7 +25978,7 @@
         <v>441542</v>
       </c>
       <c r="H554" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="J554">
         <v>441542000</v>
@@ -26001,7 +25995,7 @@
         <v>17515</v>
       </c>
       <c r="C555" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D555" s="1" t="s">
         <v>1199</v>
@@ -26033,7 +26027,7 @@
         <v>17514</v>
       </c>
       <c r="C556" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D556" s="1" t="s">
         <v>1202</v>
@@ -26065,7 +26059,7 @@
         <v>18635</v>
       </c>
       <c r="C557" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D557" s="1" t="s">
         <v>1204</v>
@@ -26097,7 +26091,7 @@
         <v>18634</v>
       </c>
       <c r="C558" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D558" s="1" t="s">
         <v>1207</v>
@@ -26129,7 +26123,7 @@
         <v>17808</v>
       </c>
       <c r="C559" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="D559" s="1" t="s">
         <v>1209</v>
@@ -26161,7 +26155,7 @@
         <v>17807</v>
       </c>
       <c r="C560" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D560" s="1" t="s">
         <v>1212</v>
@@ -26193,7 +26187,7 @@
         <v>17723</v>
       </c>
       <c r="C561" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D561" s="1" t="s">
         <v>1214</v>
@@ -26219,7 +26213,7 @@
         <v>17812</v>
       </c>
       <c r="C562" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D562" s="1" t="s">
         <v>1215</v>
@@ -26251,7 +26245,7 @@
         <v>17811</v>
       </c>
       <c r="C563" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D563" s="1" t="s">
         <v>1218</v>
@@ -26283,7 +26277,7 @@
         <v>17738</v>
       </c>
       <c r="C564" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D564" s="1" t="s">
         <v>1220</v>
@@ -26309,7 +26303,7 @@
         <v>17739</v>
       </c>
       <c r="C565" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D565" s="1" t="s">
         <v>1221</v>
@@ -26335,7 +26329,7 @@
         <v>17573</v>
       </c>
       <c r="C566" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D566" s="1" t="s">
         <v>1222</v>
@@ -26367,7 +26361,7 @@
         <v>17572</v>
       </c>
       <c r="C567" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D567" s="1" t="s">
         <v>1225</v>
@@ -26399,7 +26393,7 @@
         <v>17804</v>
       </c>
       <c r="C568" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D568" s="1" t="s">
         <v>1227</v>
@@ -26431,7 +26425,7 @@
         <v>17803</v>
       </c>
       <c r="C569" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D569" s="1" t="s">
         <v>1230</v>
@@ -26463,7 +26457,7 @@
         <v>17764</v>
       </c>
       <c r="C570" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D570" s="1" t="s">
         <v>1232</v>
@@ -26489,7 +26483,7 @@
         <v>17437</v>
       </c>
       <c r="C571" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D571" s="1" t="s">
         <v>1233</v>
@@ -26521,7 +26515,7 @@
         <v>17436</v>
       </c>
       <c r="C572" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D572" s="1" t="s">
         <v>1236</v>
@@ -26553,7 +26547,7 @@
         <v>17751</v>
       </c>
       <c r="C573" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D573" s="1" t="s">
         <v>1238</v>
@@ -26579,7 +26573,7 @@
         <v>18936</v>
       </c>
       <c r="C574" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D574" s="1" t="s">
         <v>1239</v>
@@ -26608,7 +26602,7 @@
         <v>18744</v>
       </c>
       <c r="C575" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D575" s="1" t="s">
         <v>1241</v>
@@ -26640,7 +26634,7 @@
         <v>18743</v>
       </c>
       <c r="C576" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D576" s="1" t="s">
         <v>1244</v>
@@ -26672,7 +26666,7 @@
         <v>17467</v>
       </c>
       <c r="C577" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>1246</v>
@@ -26704,7 +26698,7 @@
         <v>17466</v>
       </c>
       <c r="C578" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>1249</v>
@@ -26736,7 +26730,7 @@
         <v>17387</v>
       </c>
       <c r="C579" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D579" s="1" t="s">
         <v>1251</v>
@@ -26768,7 +26762,7 @@
         <v>17386</v>
       </c>
       <c r="C580" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D580" s="1" t="s">
         <v>1254</v>
@@ -26800,7 +26794,7 @@
         <v>17683</v>
       </c>
       <c r="C581" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D581" s="1" t="s">
         <v>1256</v>
@@ -26832,7 +26826,7 @@
         <v>17682</v>
       </c>
       <c r="C582" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D582" s="1" t="s">
         <v>1259</v>
@@ -26864,7 +26858,7 @@
         <v>17707</v>
       </c>
       <c r="C583" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D583" s="1" t="s">
         <v>1261</v>
@@ -26896,7 +26890,7 @@
         <v>17706</v>
       </c>
       <c r="C584" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D584" s="1" t="s">
         <v>1264</v>
@@ -26928,7 +26922,7 @@
         <v>17731</v>
       </c>
       <c r="C585" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D585" s="1" t="s">
         <v>1266</v>
@@ -26954,7 +26948,7 @@
         <v>18846</v>
       </c>
       <c r="C586" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D586" s="1" t="s">
         <v>1267</v>
@@ -26989,7 +26983,7 @@
         <v>18847</v>
       </c>
       <c r="C587" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D587" s="1" t="s">
         <v>1269</v>
@@ -27024,7 +27018,7 @@
         <v>18848</v>
       </c>
       <c r="C588" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D588" s="1" t="s">
         <v>1271</v>
@@ -27059,7 +27053,7 @@
         <v>18849</v>
       </c>
       <c r="C589" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D589" s="1" t="s">
         <v>1273</v>
@@ -27094,7 +27088,7 @@
         <v>18850</v>
       </c>
       <c r="C590" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D590" s="1" t="s">
         <v>1275</v>
@@ -27129,7 +27123,7 @@
         <v>17509</v>
       </c>
       <c r="C591" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D591" s="1" t="s">
         <v>1277</v>
@@ -27161,7 +27155,7 @@
         <v>17508</v>
       </c>
       <c r="C592" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D592" s="1" t="s">
         <v>1280</v>
@@ -27193,7 +27187,7 @@
         <v>18614</v>
       </c>
       <c r="C593" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="D593" s="1" t="s">
         <v>1282</v>
@@ -27225,7 +27219,7 @@
         <v>18613</v>
       </c>
       <c r="C594" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D594" s="1" t="s">
         <v>1285</v>
@@ -27257,7 +27251,7 @@
         <v>18667</v>
       </c>
       <c r="C595" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="D595" s="1" t="s">
         <v>1287</v>
@@ -27289,7 +27283,7 @@
         <v>18666</v>
       </c>
       <c r="C596" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D596" s="1" t="s">
         <v>1290</v>
@@ -27321,7 +27315,7 @@
         <v>17643</v>
       </c>
       <c r="C597" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D597" s="1" t="s">
         <v>1292</v>
@@ -27353,7 +27347,7 @@
         <v>17642</v>
       </c>
       <c r="C598" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D598" s="1" t="s">
         <v>1295</v>
@@ -27385,7 +27379,7 @@
         <v>17798</v>
       </c>
       <c r="C599" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D599" s="1" t="s">
         <v>1297</v>
@@ -27417,7 +27411,7 @@
         <v>17797</v>
       </c>
       <c r="C600" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D600" s="1" t="s">
         <v>1300</v>
@@ -27449,7 +27443,7 @@
         <v>17762</v>
       </c>
       <c r="C601" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D601" s="1" t="s">
         <v>1302</v>
@@ -27475,7 +27469,7 @@
         <v>17703</v>
       </c>
       <c r="C602" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D602" s="1" t="s">
         <v>1303</v>
@@ -27507,7 +27501,7 @@
         <v>17702</v>
       </c>
       <c r="C603" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D603" s="1" t="s">
         <v>1306</v>
@@ -27539,7 +27533,7 @@
         <v>11966</v>
       </c>
       <c r="C604" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D604" s="1" t="s">
         <v>1308</v>
@@ -27568,7 +27562,7 @@
         <v>18560</v>
       </c>
       <c r="C605" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D605" s="1" t="s">
         <v>1310</v>
@@ -27597,7 +27591,7 @@
         <v>18550</v>
       </c>
       <c r="C606" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D606" s="1" t="s">
         <v>1311</v>
@@ -27623,7 +27617,7 @@
         <v>17653</v>
       </c>
       <c r="C607" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D607" s="1" t="s">
         <v>1312</v>
@@ -27655,7 +27649,7 @@
         <v>17652</v>
       </c>
       <c r="C608" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D608" s="1" t="s">
         <v>1315</v>
@@ -27687,7 +27681,7 @@
         <v>17599</v>
       </c>
       <c r="C609" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="D609" s="1" t="s">
         <v>1317</v>
@@ -27719,7 +27713,7 @@
         <v>17598</v>
       </c>
       <c r="C610" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D610" s="1" t="s">
         <v>1320</v>
@@ -27751,7 +27745,7 @@
         <v>18669</v>
       </c>
       <c r="C611" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D611" s="1" t="s">
         <v>1322</v>
@@ -27783,7 +27777,7 @@
         <v>18668</v>
       </c>
       <c r="C612" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D612" s="1" t="s">
         <v>1325</v>
@@ -27815,7 +27809,7 @@
         <v>18339</v>
       </c>
       <c r="C613" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="D613" s="1" t="s">
         <v>1327</v>
@@ -27847,7 +27841,7 @@
         <v>18340</v>
       </c>
       <c r="C614" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D614" s="1" t="s">
         <v>1330</v>
@@ -27879,7 +27873,7 @@
         <v>16905</v>
       </c>
       <c r="C615" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D615" s="1" t="s">
         <v>1332</v>
@@ -27908,7 +27902,7 @@
         <v>16906</v>
       </c>
       <c r="C616" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D616" s="1" t="s">
         <v>1334</v>
@@ -27966,7 +27960,7 @@
         <v>17649</v>
       </c>
       <c r="C618" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D618" s="1" t="s">
         <v>1337</v>
@@ -27998,7 +27992,7 @@
         <v>17648</v>
       </c>
       <c r="C619" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D619" s="1" t="s">
         <v>1340</v>
@@ -28030,7 +28024,7 @@
         <v>16865</v>
       </c>
       <c r="C620" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D620" s="1" t="s">
         <v>1342</v>
@@ -28088,7 +28082,7 @@
         <v>18307</v>
       </c>
       <c r="C622" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D622" s="1" t="s">
         <v>1346</v>
@@ -28120,7 +28114,7 @@
         <v>18308</v>
       </c>
       <c r="C623" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="D623" s="1" t="s">
         <v>1348</v>
@@ -28152,7 +28146,7 @@
         <v>17449</v>
       </c>
       <c r="C624" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D624" s="1" t="s">
         <v>1349</v>
@@ -28184,7 +28178,7 @@
         <v>17448</v>
       </c>
       <c r="C625" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D625" s="1" t="s">
         <v>1352</v>
@@ -28216,7 +28210,7 @@
         <v>17806</v>
       </c>
       <c r="C626" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D626" s="1" t="s">
         <v>1354</v>
@@ -28248,7 +28242,7 @@
         <v>17805</v>
       </c>
       <c r="C627" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D627" s="1" t="s">
         <v>1357</v>
@@ -28280,7 +28274,7 @@
         <v>17740</v>
       </c>
       <c r="C628" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D628" s="1" t="s">
         <v>1359</v>
@@ -28306,7 +28300,7 @@
         <v>18649</v>
       </c>
       <c r="C629" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D629" s="1" t="s">
         <v>1360</v>
@@ -28338,7 +28332,7 @@
         <v>18648</v>
       </c>
       <c r="C630" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D630" s="1" t="s">
         <v>1363</v>
@@ -28370,7 +28364,7 @@
         <v>17529</v>
       </c>
       <c r="C631" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D631" s="1" t="s">
         <v>1365</v>
@@ -28402,7 +28396,7 @@
         <v>17528</v>
       </c>
       <c r="C632" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D632" s="1" t="s">
         <v>1368</v>
@@ -28463,7 +28457,7 @@
         <v>18679</v>
       </c>
       <c r="C634" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D634" s="1" t="s">
         <v>1372</v>
@@ -28495,7 +28489,7 @@
         <v>18678</v>
       </c>
       <c r="C635" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D635" s="1" t="s">
         <v>1375</v>
@@ -28527,7 +28521,7 @@
         <v>18643</v>
       </c>
       <c r="C636" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D636" s="1" t="s">
         <v>1377</v>
@@ -28559,7 +28553,7 @@
         <v>18642</v>
       </c>
       <c r="C637" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D637" s="1" t="s">
         <v>1380</v>
@@ -28591,7 +28585,7 @@
         <v>17800</v>
       </c>
       <c r="C638" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D638" s="1" t="s">
         <v>1382</v>
@@ -28623,7 +28617,7 @@
         <v>17799</v>
       </c>
       <c r="C639" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D639" s="1" t="s">
         <v>1385</v>
@@ -28655,7 +28649,7 @@
         <v>17405</v>
       </c>
       <c r="C640" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D640" s="1" t="s">
         <v>1387</v>
@@ -28687,7 +28681,7 @@
         <v>17404</v>
       </c>
       <c r="C641" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D641" s="1" t="s">
         <v>1390</v>
@@ -28719,7 +28713,7 @@
         <v>17715</v>
       </c>
       <c r="C642" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D642" s="1" t="s">
         <v>1392</v>
@@ -28751,7 +28745,7 @@
         <v>17714</v>
       </c>
       <c r="C643" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D643" s="1" t="s">
         <v>1395</v>
@@ -28783,7 +28777,7 @@
         <v>18655</v>
       </c>
       <c r="C644" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D644" s="1" t="s">
         <v>1397</v>
@@ -28815,7 +28809,7 @@
         <v>18654</v>
       </c>
       <c r="C645" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D645" s="1" t="s">
         <v>1400</v>
@@ -28847,7 +28841,7 @@
         <v>18509</v>
       </c>
       <c r="C646" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D646" s="1" t="s">
         <v>1402</v>
@@ -28876,7 +28870,7 @@
         <v>18577</v>
       </c>
       <c r="C647" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D647" s="1" t="s">
         <v>1403</v>
@@ -28905,7 +28899,7 @@
         <v>17822</v>
       </c>
       <c r="C648" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D648" s="1" t="s">
         <v>1404</v>
@@ -28937,7 +28931,7 @@
         <v>17821</v>
       </c>
       <c r="C649" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D649" s="1" t="s">
         <v>1407</v>
@@ -28969,7 +28963,7 @@
         <v>17737</v>
       </c>
       <c r="C650" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D650" s="1" t="s">
         <v>1409</v>
@@ -28995,7 +28989,7 @@
         <v>17561</v>
       </c>
       <c r="C651" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D651" s="1" t="s">
         <v>1410</v>
@@ -29027,7 +29021,7 @@
         <v>17560</v>
       </c>
       <c r="C652" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="D652" s="1" t="s">
         <v>1413</v>
@@ -29059,7 +29053,7 @@
         <v>18746</v>
       </c>
       <c r="C653" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D653" s="1" t="s">
         <v>1415</v>
@@ -29091,7 +29085,7 @@
         <v>18745</v>
       </c>
       <c r="C654" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D654" s="1" t="s">
         <v>1418</v>
@@ -29123,7 +29117,7 @@
         <v>17597</v>
       </c>
       <c r="C655" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D655" s="1" t="s">
         <v>1420</v>
@@ -29155,7 +29149,7 @@
         <v>17596</v>
       </c>
       <c r="C656" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="D656" s="1" t="s">
         <v>1423</v>
@@ -29187,7 +29181,7 @@
         <v>17457</v>
       </c>
       <c r="C657" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D657" s="1" t="s">
         <v>1425</v>
@@ -29219,7 +29213,7 @@
         <v>17456</v>
       </c>
       <c r="C658" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D658" s="1" t="s">
         <v>1428</v>
@@ -29251,7 +29245,7 @@
         <v>17733</v>
       </c>
       <c r="C659" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D659" s="1" t="s">
         <v>1430</v>
@@ -29277,7 +29271,7 @@
         <v>18939</v>
       </c>
       <c r="C660" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D660" s="1" t="s">
         <v>1431</v>
@@ -29306,7 +29300,7 @@
         <v>17705</v>
       </c>
       <c r="C661" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D661" s="1" t="s">
         <v>1433</v>
@@ -29338,7 +29332,7 @@
         <v>17704</v>
       </c>
       <c r="C662" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D662" s="1" t="s">
         <v>1436</v>
@@ -29370,7 +29364,7 @@
         <v>18505</v>
       </c>
       <c r="C663" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D663" s="1" t="s">
         <v>1438</v>
@@ -29396,7 +29390,7 @@
         <v>17623</v>
       </c>
       <c r="C664" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D664" s="1" t="s">
         <v>1439</v>
@@ -29428,7 +29422,7 @@
         <v>17622</v>
       </c>
       <c r="C665" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D665" s="1" t="s">
         <v>1442</v>
@@ -29460,7 +29454,7 @@
         <v>18522</v>
       </c>
       <c r="C666" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D666" s="1" t="s">
         <v>1444</v>
@@ -29489,7 +29483,7 @@
         <v>18557</v>
       </c>
       <c r="C667" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D667" s="1" t="s">
         <v>1445</v>
@@ -29518,7 +29512,7 @@
         <v>18659</v>
       </c>
       <c r="C668" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D668" s="1" t="s">
         <v>1446</v>
@@ -29550,7 +29544,7 @@
         <v>18658</v>
       </c>
       <c r="C669" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="D669" s="1" t="s">
         <v>1449</v>
@@ -29582,7 +29576,7 @@
         <v>17485</v>
       </c>
       <c r="C670" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D670" s="1" t="s">
         <v>1451</v>
@@ -29614,7 +29608,7 @@
         <v>17484</v>
       </c>
       <c r="C671" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D671" s="1" t="s">
         <v>1454</v>
@@ -29646,7 +29640,7 @@
         <v>17571</v>
       </c>
       <c r="C672" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D672" s="1" t="s">
         <v>1456</v>
@@ -29678,7 +29672,7 @@
         <v>17570</v>
       </c>
       <c r="C673" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="D673" s="1" t="s">
         <v>1459</v>
@@ -29710,13 +29704,13 @@
         <v>17876</v>
       </c>
       <c r="C674" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="D674" s="1" t="s">
         <v>1461</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="F674">
         <v>4163261003</v>
@@ -29725,7 +29719,7 @@
         <v>4163261</v>
       </c>
       <c r="H674" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="J674">
         <v>4163261000</v>
@@ -29742,7 +29736,7 @@
         <v>18851</v>
       </c>
       <c r="C675" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D675" s="1" t="s">
         <v>1462</v>
@@ -29774,7 +29768,7 @@
         <v>18852</v>
       </c>
       <c r="C676" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D676" s="1" t="s">
         <v>1464</v>
@@ -29806,7 +29800,7 @@
         <v>18853</v>
       </c>
       <c r="C677" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D677" s="1" t="s">
         <v>1466</v>
@@ -29838,7 +29832,7 @@
         <v>18854</v>
       </c>
       <c r="C678" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D678" s="1" t="s">
         <v>1468</v>
@@ -29870,7 +29864,7 @@
         <v>18653</v>
       </c>
       <c r="C679" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D679" s="1" t="s">
         <v>1470</v>
@@ -29902,7 +29896,7 @@
         <v>18652</v>
       </c>
       <c r="C680" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D680" s="1" t="s">
         <v>1473</v>
@@ -29934,7 +29928,7 @@
         <v>18478</v>
       </c>
       <c r="C681" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D681" s="1" t="s">
         <v>1475</v>
@@ -29963,7 +29957,7 @@
         <v>17431</v>
       </c>
       <c r="C682" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="D682" s="1" t="s">
         <v>1476</v>
@@ -29995,7 +29989,7 @@
         <v>17430</v>
       </c>
       <c r="C683" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="D683" s="1" t="s">
         <v>1479</v>
@@ -30027,7 +30021,7 @@
         <v>17735</v>
       </c>
       <c r="C684" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D684" s="1" t="s">
         <v>1481</v>
@@ -30053,7 +30047,7 @@
         <v>7404</v>
       </c>
       <c r="C685" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D685" s="1" t="s">
         <v>1482</v>
@@ -30079,7 +30073,7 @@
         <v>17663</v>
       </c>
       <c r="C686" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D686" s="1" t="s">
         <v>1483</v>
@@ -30111,7 +30105,7 @@
         <v>17662</v>
       </c>
       <c r="C687" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="D687" s="1" t="s">
         <v>1486</v>
@@ -30143,7 +30137,7 @@
         <v>17565</v>
       </c>
       <c r="C688" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D688" s="1" t="s">
         <v>1488</v>
@@ -30175,7 +30169,7 @@
         <v>17564</v>
       </c>
       <c r="C689" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D689" s="1" t="s">
         <v>1491</v>
@@ -30207,7 +30201,7 @@
         <v>17567</v>
       </c>
       <c r="C690" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D690" s="1" t="s">
         <v>1493</v>
@@ -30239,7 +30233,7 @@
         <v>17566</v>
       </c>
       <c r="C691" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D691" s="1" t="s">
         <v>1496</v>
@@ -30271,7 +30265,7 @@
         <v>17569</v>
       </c>
       <c r="C692" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D692" s="1" t="s">
         <v>1498</v>
@@ -30303,7 +30297,7 @@
         <v>17568</v>
       </c>
       <c r="C693" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D693" s="1" t="s">
         <v>1501</v>
@@ -30335,7 +30329,7 @@
         <v>17461</v>
       </c>
       <c r="C694" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D694" s="1" t="s">
         <v>1503</v>
@@ -30367,7 +30361,7 @@
         <v>17460</v>
       </c>
       <c r="C695" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D695" s="1" t="s">
         <v>1506</v>
@@ -30399,7 +30393,7 @@
         <v>18711</v>
       </c>
       <c r="C696" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D696" s="1" t="s">
         <v>1508</v>
@@ -30431,7 +30425,7 @@
         <v>18710</v>
       </c>
       <c r="C697" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D697" s="1" t="s">
         <v>1511</v>
@@ -30463,7 +30457,7 @@
         <v>17802</v>
       </c>
       <c r="C698" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D698" s="1" t="s">
         <v>1513</v>
@@ -30495,7 +30489,7 @@
         <v>17801</v>
       </c>
       <c r="C699" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D699" s="1" t="s">
         <v>1516</v>
@@ -30527,7 +30521,7 @@
         <v>18661</v>
       </c>
       <c r="C700" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D700" s="1" t="s">
         <v>1518</v>
@@ -30559,7 +30553,7 @@
         <v>18660</v>
       </c>
       <c r="C701" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D701" s="1" t="s">
         <v>1521</v>
@@ -30591,7 +30585,7 @@
         <v>18623</v>
       </c>
       <c r="C702" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="D702" s="1" t="s">
         <v>1523</v>
@@ -30623,7 +30617,7 @@
         <v>18622</v>
       </c>
       <c r="C703" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D703" s="1" t="s">
         <v>1526</v>
@@ -30655,7 +30649,7 @@
         <v>18506</v>
       </c>
       <c r="C704" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D704" s="1" t="s">
         <v>1528</v>
@@ -30684,7 +30678,7 @@
         <v>18645</v>
       </c>
       <c r="C705" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="D705" s="1" t="s">
         <v>1529</v>
@@ -30716,7 +30710,7 @@
         <v>18644</v>
       </c>
       <c r="C706" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D706" s="1" t="s">
         <v>1532</v>
@@ -30748,7 +30742,7 @@
         <v>17724</v>
       </c>
       <c r="C707" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D707" s="1" t="s">
         <v>1534</v>
@@ -30777,7 +30771,7 @@
         <v>18689</v>
       </c>
       <c r="C708" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D708" s="1" t="s">
         <v>1536</v>
@@ -30809,7 +30803,7 @@
         <v>18688</v>
       </c>
       <c r="C709" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D709" s="1" t="s">
         <v>1539</v>
@@ -30841,7 +30835,7 @@
         <v>17507</v>
       </c>
       <c r="C710" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D710" s="1" t="s">
         <v>1541</v>
@@ -30873,7 +30867,7 @@
         <v>17506</v>
       </c>
       <c r="C711" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D711" s="1" t="s">
         <v>1544</v>
@@ -30905,7 +30899,7 @@
         <v>14858</v>
       </c>
       <c r="C712" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D712" s="1" t="s">
         <v>1546</v>
@@ -30934,7 +30928,7 @@
         <v>17559</v>
       </c>
       <c r="C713" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D713" s="1" t="s">
         <v>1548</v>
@@ -30966,7 +30960,7 @@
         <v>17558</v>
       </c>
       <c r="C714" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D714" s="1" t="s">
         <v>1551</v>
@@ -30998,7 +30992,7 @@
         <v>17539</v>
       </c>
       <c r="C715" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D715" s="1" t="s">
         <v>1553</v>
@@ -31030,7 +31024,7 @@
         <v>17538</v>
       </c>
       <c r="C716" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D716" s="1" t="s">
         <v>1556</v>
@@ -31062,7 +31056,7 @@
         <v>17061</v>
       </c>
       <c r="C717" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D717" s="1" t="s">
         <v>1558</v>
@@ -31091,7 +31085,7 @@
         <v>17147</v>
       </c>
       <c r="C718" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D718" s="1" t="s">
         <v>1560</v>
@@ -31120,7 +31114,7 @@
         <v>17655</v>
       </c>
       <c r="C719" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D719" s="1" t="s">
         <v>1562</v>
@@ -31152,7 +31146,7 @@
         <v>17654</v>
       </c>
       <c r="C720" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D720" s="1" t="s">
         <v>1565</v>
@@ -31184,7 +31178,7 @@
         <v>18637</v>
       </c>
       <c r="C721" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D721" s="1" t="s">
         <v>1567</v>
@@ -31216,7 +31210,7 @@
         <v>18636</v>
       </c>
       <c r="C722" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D722" s="1" t="s">
         <v>1570</v>
@@ -31248,7 +31242,7 @@
         <v>17531</v>
       </c>
       <c r="C723" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D723" s="1" t="s">
         <v>1572</v>
@@ -31280,7 +31274,7 @@
         <v>17530</v>
       </c>
       <c r="C724" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D724" s="1" t="s">
         <v>1575</v>
@@ -31312,7 +31306,7 @@
         <v>18765</v>
       </c>
       <c r="C725" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D725" s="1" t="s">
         <v>1577</v>
@@ -31338,7 +31332,7 @@
         <v>18766</v>
       </c>
       <c r="C726" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D726" s="1" t="s">
         <v>1578</v>
@@ -31364,7 +31358,7 @@
         <v>18767</v>
       </c>
       <c r="C727" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D727" s="1" t="s">
         <v>1579</v>
@@ -31390,7 +31384,7 @@
         <v>18768</v>
       </c>
       <c r="C728" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D728" s="1" t="s">
         <v>1580</v>
@@ -31416,7 +31410,7 @@
         <v>17553</v>
       </c>
       <c r="C729" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="D729" s="1" t="s">
         <v>1581</v>
@@ -31448,7 +31442,7 @@
         <v>17552</v>
       </c>
       <c r="C730" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D730" s="1" t="s">
         <v>1584</v>
@@ -31480,7 +31474,7 @@
         <v>17814</v>
       </c>
       <c r="C731" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D731" s="1" t="s">
         <v>1586</v>
@@ -31512,7 +31506,7 @@
         <v>17813</v>
       </c>
       <c r="C732" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D732" s="1" t="s">
         <v>1589</v>
@@ -31544,7 +31538,7 @@
         <v>16525</v>
       </c>
       <c r="C733" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D733" s="1" t="s">
         <v>1591</v>
@@ -31570,7 +31564,7 @@
         <v>17697</v>
       </c>
       <c r="C734" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D734" s="1" t="s">
         <v>1592</v>
@@ -31602,7 +31596,7 @@
         <v>17696</v>
       </c>
       <c r="C735" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D735" s="1" t="s">
         <v>1595</v>
@@ -31634,7 +31628,7 @@
         <v>18855</v>
       </c>
       <c r="C736" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D736" s="1" t="s">
         <v>1597</v>
@@ -31669,7 +31663,7 @@
         <v>18856</v>
       </c>
       <c r="C737" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D737" s="1" t="s">
         <v>1599</v>
@@ -31704,7 +31698,7 @@
         <v>18857</v>
       </c>
       <c r="C738" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D738" s="1" t="s">
         <v>1601</v>
@@ -31739,7 +31733,7 @@
         <v>17499</v>
       </c>
       <c r="C739" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="D739" s="1" t="s">
         <v>1603</v>
@@ -31771,7 +31765,7 @@
         <v>17498</v>
       </c>
       <c r="C740" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D740" s="1" t="s">
         <v>1606</v>
@@ -31803,7 +31797,7 @@
         <v>11652</v>
       </c>
       <c r="C741" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D741" s="1" t="s">
         <v>1608</v>
@@ -31832,7 +31826,7 @@
         <v>18756</v>
       </c>
       <c r="C742" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D742" s="1" t="s">
         <v>1610</v>
@@ -31864,7 +31858,7 @@
         <v>18755</v>
       </c>
       <c r="C743" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D743" s="1" t="s">
         <v>1613</v>
@@ -31896,7 +31890,7 @@
         <v>11977</v>
       </c>
       <c r="C744" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D744" s="1" t="s">
         <v>1615</v>
@@ -31925,7 +31919,7 @@
         <v>17172</v>
       </c>
       <c r="C745" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D745" s="1" t="s">
         <v>1617</v>
@@ -31954,7 +31948,7 @@
         <v>17667</v>
       </c>
       <c r="C746" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D746" s="1" t="s">
         <v>1619</v>
@@ -31986,7 +31980,7 @@
         <v>17666</v>
       </c>
       <c r="C747" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D747" s="1" t="s">
         <v>1622</v>
@@ -32018,7 +32012,7 @@
         <v>17687</v>
       </c>
       <c r="C748" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D748" s="1" t="s">
         <v>1624</v>
@@ -32050,7 +32044,7 @@
         <v>17686</v>
       </c>
       <c r="C749" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D749" s="1" t="s">
         <v>1627</v>
@@ -32082,7 +32076,7 @@
         <v>11651</v>
       </c>
       <c r="C750" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D750" s="1" t="s">
         <v>1629</v>
@@ -32111,7 +32105,7 @@
         <v>18748</v>
       </c>
       <c r="C751" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D751" s="1" t="s">
         <v>1631</v>
@@ -32143,7 +32137,7 @@
         <v>18747</v>
       </c>
       <c r="C752" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D752" s="1" t="s">
         <v>1634</v>
@@ -32175,7 +32169,7 @@
         <v>17792</v>
       </c>
       <c r="C753" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D753" s="1" t="s">
         <v>1636</v>
@@ -32207,7 +32201,7 @@
         <v>17791</v>
       </c>
       <c r="C754" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D754" s="1" t="s">
         <v>1639</v>
@@ -32239,7 +32233,7 @@
         <v>17823</v>
       </c>
       <c r="C755" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D755" s="1" t="s">
         <v>1641</v>
@@ -32265,7 +32259,7 @@
         <v>17824</v>
       </c>
       <c r="C756" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D756" s="1" t="s">
         <v>1642</v>
@@ -32291,7 +32285,7 @@
         <v>17635</v>
       </c>
       <c r="C757" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D757" s="1" t="s">
         <v>1643</v>
@@ -32323,7 +32317,7 @@
         <v>17634</v>
       </c>
       <c r="C758" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D758" s="1" t="s">
         <v>1646</v>
@@ -32355,7 +32349,7 @@
         <v>17459</v>
       </c>
       <c r="C759" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D759" s="1" t="s">
         <v>1648</v>
@@ -32387,7 +32381,7 @@
         <v>17458</v>
       </c>
       <c r="C760" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D760" s="1" t="s">
         <v>1651</v>
@@ -32419,7 +32413,7 @@
         <v>17647</v>
       </c>
       <c r="C761" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D761" s="1" t="s">
         <v>1653</v>
@@ -32451,7 +32445,7 @@
         <v>17646</v>
       </c>
       <c r="C762" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D762" s="1" t="s">
         <v>1656</v>
@@ -32483,7 +32477,7 @@
         <v>18665</v>
       </c>
       <c r="C763" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D763" s="1" t="s">
         <v>1658</v>
@@ -32515,7 +32509,7 @@
         <v>18664</v>
       </c>
       <c r="C764" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D764" s="1" t="s">
         <v>1661</v>
@@ -32547,7 +32541,7 @@
         <v>18695</v>
       </c>
       <c r="C765" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D765" s="1" t="s">
         <v>1663</v>
@@ -32579,7 +32573,7 @@
         <v>18694</v>
       </c>
       <c r="C766" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D766" s="1" t="s">
         <v>1666</v>
@@ -32611,7 +32605,7 @@
         <v>17794</v>
       </c>
       <c r="C767" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D767" s="1" t="s">
         <v>1668</v>
@@ -32643,7 +32637,7 @@
         <v>17793</v>
       </c>
       <c r="C768" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D768" s="1" t="s">
         <v>1671</v>
@@ -32675,7 +32669,7 @@
         <v>18774</v>
       </c>
       <c r="C769" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D769" s="1" t="s">
         <v>1673</v>
@@ -32701,7 +32695,7 @@
         <v>18776</v>
       </c>
       <c r="C770" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D770" s="1" t="s">
         <v>1674</v>
@@ -32727,7 +32721,7 @@
         <v>18777</v>
       </c>
       <c r="C771" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D771" s="1" t="s">
         <v>1675</v>
@@ -32753,7 +32747,7 @@
         <v>18701</v>
       </c>
       <c r="C772" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D772" s="1" t="s">
         <v>1676</v>
@@ -32785,7 +32779,7 @@
         <v>18700</v>
       </c>
       <c r="C773" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D773" s="1" t="s">
         <v>1679</v>
@@ -32817,7 +32811,7 @@
         <v>18561</v>
       </c>
       <c r="C774" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D774" s="1" t="s">
         <v>1681</v>
@@ -32846,7 +32840,7 @@
         <v>17577</v>
       </c>
       <c r="C775" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D775" s="1" t="s">
         <v>1682</v>
@@ -32878,7 +32872,7 @@
         <v>17576</v>
       </c>
       <c r="C776" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D776" s="1" t="s">
         <v>1685</v>
@@ -32910,7 +32904,7 @@
         <v>17557</v>
       </c>
       <c r="C777" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D777" s="1" t="s">
         <v>1687</v>
@@ -32942,7 +32936,7 @@
         <v>17556</v>
       </c>
       <c r="C778" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D778" s="1" t="s">
         <v>1690</v>
@@ -32974,7 +32968,7 @@
         <v>17579</v>
       </c>
       <c r="C779" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D779" s="1" t="s">
         <v>1692</v>
@@ -33006,7 +33000,7 @@
         <v>17578</v>
       </c>
       <c r="C780" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D780" s="1" t="s">
         <v>1695</v>
@@ -33038,7 +33032,7 @@
         <v>18138</v>
       </c>
       <c r="C781" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D781" s="1" t="s">
         <v>1697</v>
@@ -33070,7 +33064,7 @@
         <v>18621</v>
       </c>
       <c r="C782" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D782" s="1" t="s">
         <v>1700</v>
@@ -33102,7 +33096,7 @@
         <v>11953</v>
       </c>
       <c r="C783" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D783" s="1" t="s">
         <v>1702</v>
@@ -33131,7 +33125,7 @@
         <v>17810</v>
       </c>
       <c r="C784" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D784" s="1" t="s">
         <v>1704</v>
@@ -33163,7 +33157,7 @@
         <v>17809</v>
       </c>
       <c r="C785" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="D785" s="1" t="s">
         <v>1707</v>
@@ -33195,7 +33189,7 @@
         <v>17726</v>
       </c>
       <c r="C786" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D786" s="1" t="s">
         <v>1709</v>
@@ -33221,7 +33215,7 @@
         <v>18627</v>
       </c>
       <c r="C787" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D787" s="1" t="s">
         <v>1710</v>
@@ -33253,7 +33247,7 @@
         <v>18626</v>
       </c>
       <c r="C788" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D788" s="1" t="s">
         <v>1713</v>
@@ -33285,7 +33279,7 @@
         <v>17487</v>
       </c>
       <c r="C789" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D789" s="1" t="s">
         <v>1715</v>
@@ -33317,7 +33311,7 @@
         <v>17486</v>
       </c>
       <c r="C790" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D790" s="1" t="s">
         <v>1718</v>
@@ -33349,7 +33343,7 @@
         <v>17855</v>
       </c>
       <c r="C791" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="D791" s="1" t="s">
         <v>1720</v>
@@ -33381,7 +33375,7 @@
         <v>17441</v>
       </c>
       <c r="C792" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="D792" s="1" t="s">
         <v>1722</v>
@@ -33413,7 +33407,7 @@
         <v>17440</v>
       </c>
       <c r="C793" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D793" s="1" t="s">
         <v>1725</v>
@@ -33445,7 +33439,7 @@
         <v>17718</v>
       </c>
       <c r="C794" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D794" s="1" t="s">
         <v>1727</v>
@@ -33471,7 +33465,7 @@
         <v>17759</v>
       </c>
       <c r="C795" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D795" s="1" t="s">
         <v>1728</v>
@@ -33497,7 +33491,7 @@
         <v>17853</v>
       </c>
       <c r="C796" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D796" s="1" t="s">
         <v>1729</v>
@@ -33523,7 +33517,7 @@
         <v>18938</v>
       </c>
       <c r="C797" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D797" s="1" t="s">
         <v>1730</v>
